--- a/trunk/doc/22_output.xlsx
+++ b/trunk/doc/22_output.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="训练数据集" sheetId="4" r:id="rId1"/>
@@ -14,6 +14,9 @@
     <sheet name="书籍" sheetId="11" r:id="rId5"/>
     <sheet name="发展方向" sheetId="14" r:id="rId6"/>
     <sheet name="替换脚本" sheetId="19" r:id="rId7"/>
+    <sheet name="Hadoop-资源管理" sheetId="20" r:id="rId8"/>
+    <sheet name="计算" sheetId="21" r:id="rId9"/>
+    <sheet name="Sheet1" sheetId="22" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">替换脚本!$B$1:$C$52</definedName>
@@ -23,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="304">
   <si>
     <t>国内数据</t>
   </si>
@@ -366,36 +369,33 @@
   </si>
   <si>
     <t>寒假回家过年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大三报道扬州通达学院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寒假七天回家过年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大四报道扬州通达学院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毕业扬州通达学院、离职上海蓝灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>离职深圳长亮数据（外包）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>寒假回家过年</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>大三报道扬州通达学院</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>寒假七天回家过年</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大四报道扬州通达学院</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>毕业扬州通达学院、离职上海蓝灯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>离职深圳长亮数据（外包）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>寒假回家过年</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>王坚</t>
   </si>
   <si>
@@ -449,10 +449,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>实习工作上海蓝灯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>工作深圳长亮数据（外包）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -477,16 +473,696 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>《红楼梦》曹雪芹1715-1763</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>技术类</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>文学类</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>worker node</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tasktracker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datanode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>master node</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>namenode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jobtracker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accept job submissions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>schedule tasks</t>
+  </si>
+  <si>
+    <t>task slots</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hadoop 1.x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource manager</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rack01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rack02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rack03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>备注：</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>one application per job - mapreduce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>one application per workflow(DAG consisted by jobs) - spark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hadoop 2.x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>node manager</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>containers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>application master</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>timeline server</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>storing job history</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>schedule tasks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tasks monitoring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>application master</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>timeline server</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>secondary namenode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blocks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fsimage and edits</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>secondary namenode node</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hadoop开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金融BI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智慧城市AI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业资源管理ERP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机器学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用框架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用领域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>namenode node</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>node manager</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>merge edits into fsimage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>send block report to namenode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>directly access to blocks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accept request of access to data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tasks monitoring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maintain edits, update fsimage in memory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>24*2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300-…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24*3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nodes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>permission</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>owner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>group data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>locations of blocks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maps of blocks to files</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>filename</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>containing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>namenode hardware</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>local disk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>namenode dir</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>memory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1G/1,000,000 blocks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>secondary namenode hardware</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>checkpoint dir</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fsimage file</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>edit log</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>namenode memory/GB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jobtracker hardware</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>worker hardware</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>disk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20%-30% for temporary data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1T new data per day need 3T space</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>predetermined number of (map/reduce) task slots</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2G-4G per task slot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPU time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>disk or network I/O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datanode dir</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>multiple directories mounted different storage devices</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>one must be NFS directory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>余额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12月工资</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200+1000=-1200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公积金提取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-22号银行办理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳房租押金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-05号联系房东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户余额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寒假工南京电子厂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暑假实习工作上海蓝灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>disk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yarn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hdfs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yarn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算框架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分布式存储：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>blocks</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>映射</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>hdfs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>cpu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>memory</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>资源调度和任务监控</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发框架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《红楼梦》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹雪芹</t>
   </si>
   <si>
     <r>
@@ -516,7 +1192,38 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>》林语堂</t>
+      <t>》</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林语堂</t>
+  </si>
+  <si>
+    <t>《白鹿原》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈忠实</t>
+  </si>
+  <si>
+    <t>1828</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1910</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>《</t>
     </r>
     <r>
       <rPr>
@@ -525,380 +1232,108 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>1895-1976</t>
+      <t>War and Peace</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>《白鹿原》陈忠实1942-2016</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>worker node</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tasktracker</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>datanode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>master node</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>namenode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jobtracker</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>accept job submissions</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>schedule tasks</t>
-  </si>
-  <si>
-    <t>task slots</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hadoop 1.x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource manager</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rack01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rack02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rack03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>》</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>列夫</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>备注：</t>
+      <t>·尼古拉耶维奇·托尔斯泰</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>one application per job - mapreduce</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>one application per workflow(DAG consisted by jobs) - spark</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hadoop 2.x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>node manager</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>containers</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>application master</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>timeline server</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>storing job history</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>schedule tasks</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tasks monitoring</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>application master</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>timeline server</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>secondary namenode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>blocks</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fsimage and edits</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>secondary namenode node</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库开发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hadoop开发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金融BI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>智慧城市AI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>企业资源管理ERP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>机器学习</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>存储</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>应用框架</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技术</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>应用领域</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>namenode node</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>node manager</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>merge edits into fsimage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>send block report to namenode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>directly access to blocks</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>accept request of access to data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tasks monitoring</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maintain edits, update fsimage in memory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>h</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>i</t>
-  </si>
-  <si>
-    <t>j</t>
-  </si>
-  <si>
-    <t>k</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>o</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>q</t>
-  </si>
-  <si>
-    <t>r</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>t</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>v</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>z</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>J</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Q</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>U</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>W</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>Z</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>《</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Holy Bible</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>》</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>《</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Slowing down to the speed of life</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>》</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出生日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢世日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在世时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -908,7 +1343,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$-17804]yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1018,6 +1453,39 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="18">
     <fill>
@@ -1094,12 +1562,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1122,8 +1584,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="24">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -1416,12 +1884,200 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF00B050"/>
+      </left>
+      <right style="dashed">
+        <color rgb="FF00B050"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF00B050"/>
+      </top>
+      <bottom style="dashed">
+        <color rgb="FF00B050"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color rgb="FF00B050"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF00B050"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF00B050"/>
+      </top>
+      <bottom style="dashed">
+        <color rgb="FF00B050"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF00B050"/>
+      </left>
+      <right style="dashed">
+        <color rgb="FF00B050"/>
+      </right>
+      <top style="dashed">
+        <color rgb="FF00B050"/>
+      </top>
+      <bottom style="dashed">
+        <color rgb="FF00B050"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color rgb="FF00B050"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF00B050"/>
+      </right>
+      <top style="dashed">
+        <color rgb="FF00B050"/>
+      </top>
+      <bottom style="dashed">
+        <color rgb="FF00B050"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF00B050"/>
+      </left>
+      <right style="dashed">
+        <color rgb="FF00B050"/>
+      </right>
+      <top style="dashed">
+        <color rgb="FF00B050"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF00B050"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color rgb="FF00B050"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF00B050"/>
+      </right>
+      <top style="dashed">
+        <color rgb="FF00B050"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF00B050"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF00B050"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF00B050"/>
+      </left>
+      <right style="dashed">
+        <color rgb="FF00B050"/>
+      </right>
+      <top style="dashed">
+        <color rgb="FF00B050"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color rgb="FF00B050"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF00B050"/>
+      </right>
+      <top style="dashed">
+        <color rgb="FF00B050"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF00B050"/>
+      </left>
+      <right style="dashed">
+        <color rgb="FF00B050"/>
+      </right>
+      <top/>
+      <bottom style="dashed">
+        <color rgb="FF00B050"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF00B050"/>
+      </left>
+      <right/>
+      <top style="dashed">
+        <color rgb="FF00B050"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF00B050"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF00B050"/>
+      </right>
+      <top style="dashed">
+        <color rgb="FF00B050"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF00B050"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF00B050"/>
+      </left>
+      <right style="dashed">
+        <color rgb="FF00B050"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF00B050"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF00B050"/>
+      </left>
+      <right style="dashed">
+        <color rgb="FF00B050"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1449,7 +2105,6 @@
     <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1457,13 +2112,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1471,43 +2119,43 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1530,78 +2178,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1622,6 +2198,165 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="17" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="17" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="17" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="17" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2476,17 +3211,17 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2500,7 +3235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2514,7 +3249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2528,7 +3263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>52</v>
       </c>
@@ -2542,7 +3277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -2556,7 +3291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2570,7 +3305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -2584,7 +3319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -2598,7 +3333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -2612,7 +3347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -2626,7 +3361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -2640,7 +3375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -2654,7 +3389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -2668,7 +3403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -2682,7 +3417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -2696,7 +3431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -2710,7 +3445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -2724,7 +3459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -2738,7 +3473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -2752,7 +3487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -2766,7 +3501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>37</v>
       </c>
@@ -2780,7 +3515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>53</v>
       </c>
@@ -2794,7 +3529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>40</v>
       </c>
@@ -2808,7 +3543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>42</v>
       </c>
@@ -2822,7 +3557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>44</v>
       </c>
@@ -2836,7 +3571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>46</v>
       </c>
@@ -2850,7 +3585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>48</v>
       </c>
@@ -2864,7 +3599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>50</v>
       </c>
@@ -2915,79 +3650,144 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="4" width="21.625" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="2"/>
+    <col min="5" max="5" width="9" style="70"/>
+    <col min="6" max="6" width="32.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="55" t="s">
+    <row r="1" spans="1:6" ht="20.25" thickBot="1">
+      <c r="B1" s="81" t="s">
         <v>94</v>
       </c>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="72" t="s">
+        <v>283</v>
+      </c>
+      <c r="F1" s="72" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="B2" s="4"/>
       <c r="C2" s="5"/>
-      <c r="D2" s="81"/>
-    </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="57" t="s">
-        <v>173</v>
-      </c>
+      <c r="D2" s="53"/>
+    </row>
+    <row r="3" spans="1:6" ht="30">
+      <c r="A3" s="83"/>
       <c r="B3" s="6" t="s">
         <v>85</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D3" s="82" t="s">
+      <c r="D3" s="54" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="58"/>
-      <c r="B4" s="59" t="s">
+      <c r="E3" s="76" t="s">
+        <v>166</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="29.25" customHeight="1">
+      <c r="A4" s="84"/>
+      <c r="B4" s="85" t="s">
         <v>86</v>
       </c>
-      <c r="C4" s="60"/>
-      <c r="D4" s="22" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="18" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="B5" s="61" t="s">
+      <c r="E4" s="77"/>
+      <c r="F4" s="9" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="9"/>
+      <c r="B5" s="87" t="s">
         <v>88</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="63"/>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="B6" s="64" t="s">
+      <c r="C5" s="88"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="71" t="s">
+        <v>282</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A6" s="9"/>
+      <c r="B6" s="78" t="s">
         <v>89</v>
       </c>
-      <c r="C6" s="65"/>
-      <c r="D6" s="66"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="71" t="s">
+        <v>281</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>285</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="E3:E4"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="A3:A4"/>
@@ -3004,11 +3804,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N75"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="F57" sqref="F57"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7.5" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="9" style="7"/>
@@ -3017,7 +3817,7 @@
     <col min="6" max="6" width="32.75" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="2.625" style="7" customWidth="1"/>
     <col min="8" max="8" width="45" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5" style="23" customWidth="1"/>
+    <col min="9" max="9" width="5" style="19" customWidth="1"/>
     <col min="10" max="10" width="9" style="7" customWidth="1"/>
     <col min="11" max="11" width="9" style="7"/>
     <col min="12" max="12" width="9" style="7" customWidth="1"/>
@@ -3026,785 +3826,793 @@
     <col min="16" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:14">
+      <c r="A1" s="41" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="99" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="B2" s="99" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="99"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="99"/>
+      <c r="K3" s="99"/>
+      <c r="L3" s="99"/>
+    </row>
+    <row r="4" spans="1:14" ht="18.75">
+      <c r="A4" s="100" t="s">
+        <v>137</v>
+      </c>
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="100"/>
+      <c r="L4" s="100"/>
+      <c r="M4" s="100"/>
+    </row>
+    <row r="5" spans="1:14" ht="15.75" thickBot="1">
+      <c r="N5" s="20"/>
+    </row>
+    <row r="6" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A6" s="93" t="s">
+        <v>141</v>
+      </c>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="F6" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="H6" s="48" t="s">
+        <v>158</v>
+      </c>
+      <c r="J6" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="K6" s="21"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="96" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="94"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="H7" s="42" t="s">
+        <v>134</v>
+      </c>
+      <c r="J7" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="K7" s="25"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="97"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="94"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="H8" s="43" t="s">
+        <v>152</v>
+      </c>
+      <c r="J8" s="29"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="97"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="94"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="26"/>
+      <c r="H9" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="J9" s="29"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="97"/>
+    </row>
+    <row r="10" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A10" s="94"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="30"/>
+      <c r="H10" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="J10" s="29"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="97"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="94"/>
+      <c r="B11" s="90" t="s">
+        <v>128</v>
+      </c>
+      <c r="C11" s="90"/>
+      <c r="D11" s="91"/>
+      <c r="J11" s="92" t="s">
+        <v>131</v>
+      </c>
+      <c r="K11" s="90"/>
+      <c r="L11" s="90"/>
+      <c r="M11" s="97"/>
+    </row>
+    <row r="12" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A12" s="94"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="32"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="97"/>
+    </row>
+    <row r="13" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A13" s="94"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="H13" s="48" t="s">
+        <v>158</v>
+      </c>
+      <c r="J13" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="K13" s="25"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="97"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="94"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="97"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="94"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="J15" s="27"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="97"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="94"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="26"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="97"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="94"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="30"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="97"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="94"/>
+      <c r="B18" s="90" t="s">
+        <v>128</v>
+      </c>
+      <c r="C18" s="90"/>
+      <c r="D18" s="91"/>
+      <c r="J18" s="92" t="s">
+        <v>159</v>
+      </c>
+      <c r="K18" s="90"/>
+      <c r="L18" s="90"/>
+      <c r="M18" s="97"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="94"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="32"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="97"/>
+    </row>
+    <row r="20" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A20" s="95"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="D20" s="38"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="L20" s="36"/>
+      <c r="M20" s="98"/>
+    </row>
+    <row r="21" spans="1:13" ht="15.75" thickBot="1"/>
+    <row r="22" spans="1:13">
+      <c r="A22" s="93" t="s">
+        <v>142</v>
+      </c>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="22" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="94"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="26" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="94"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="26" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="94"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="26"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="94"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="30"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="94"/>
+      <c r="B27" s="90" t="s">
+        <v>128</v>
+      </c>
+      <c r="C27" s="90"/>
+      <c r="D27" s="91"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="94"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="32"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="94"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="94"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="26" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="94"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="26" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="94"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="26"/>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="94"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="30"/>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="94"/>
+      <c r="B34" s="90" t="s">
+        <v>128</v>
+      </c>
+      <c r="C34" s="90"/>
+      <c r="D34" s="91"/>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" s="94"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="32"/>
+    </row>
+    <row r="36" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A36" s="95"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="D36" s="38"/>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38" s="40" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="B39" s="34"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="34"/>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="B40" s="34"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="34"/>
+      <c r="F40" s="34"/>
+      <c r="G40" s="34"/>
+      <c r="H40" s="34"/>
+      <c r="I40" s="35"/>
+    </row>
+    <row r="41" spans="1:14" ht="19.5" thickBot="1">
+      <c r="A41" s="100" t="s">
+        <v>146</v>
+      </c>
+      <c r="B41" s="100"/>
+      <c r="C41" s="100"/>
+      <c r="D41" s="100"/>
+      <c r="E41" s="100"/>
+      <c r="F41" s="100"/>
+      <c r="G41" s="100"/>
+      <c r="H41" s="100"/>
+      <c r="I41" s="100"/>
+      <c r="J41" s="100"/>
+      <c r="K41" s="100"/>
+      <c r="L41" s="100"/>
+      <c r="M41" s="100"/>
+    </row>
+    <row r="42" spans="1:14" ht="15.75" thickBot="1">
+      <c r="F42" s="55" t="s">
+        <v>173</v>
+      </c>
+      <c r="H42" s="57" t="s">
+        <v>176</v>
+      </c>
+      <c r="N42" s="20"/>
+    </row>
+    <row r="43" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A43" s="93" t="s">
+        <v>141</v>
+      </c>
+      <c r="B43" s="21"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="F43" s="56" t="s">
+        <v>172</v>
+      </c>
+      <c r="H43" s="58" t="s">
+        <v>174</v>
+      </c>
+      <c r="J43" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="K43" s="21"/>
+      <c r="L43" s="24"/>
+      <c r="M43" s="96" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
+      <c r="A44" s="94"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="H44" s="42" t="s">
+        <v>134</v>
+      </c>
+      <c r="J44" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="K44" s="25"/>
+      <c r="L44" s="28"/>
+      <c r="M44" s="97"/>
+    </row>
+    <row r="45" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A45" s="94"/>
+      <c r="B45" s="25"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="B1" s="77" t="s">
+      <c r="H45" s="44" t="s">
+        <v>135</v>
+      </c>
+      <c r="J45" s="29"/>
+      <c r="K45" s="25"/>
+      <c r="L45" s="28"/>
+      <c r="M45" s="97"/>
+    </row>
+    <row r="46" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A46" s="94"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="F46" s="45" t="s">
+        <v>175</v>
+      </c>
+      <c r="G46" s="49"/>
+      <c r="J46" s="29"/>
+      <c r="K46" s="25"/>
+      <c r="L46" s="28"/>
+      <c r="M46" s="97"/>
+    </row>
+    <row r="47" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A47" s="94"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="F47" s="46" t="s">
+        <v>151</v>
+      </c>
+      <c r="G47" s="50"/>
+      <c r="J47" s="29"/>
+      <c r="K47" s="25"/>
+      <c r="L47" s="25"/>
+      <c r="M47" s="97"/>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="A48" s="94"/>
+      <c r="B48" s="90" t="s">
+        <v>128</v>
+      </c>
+      <c r="C48" s="90"/>
+      <c r="D48" s="91"/>
+      <c r="J48" s="92" t="s">
+        <v>169</v>
+      </c>
+      <c r="K48" s="90"/>
+      <c r="L48" s="90"/>
+      <c r="M48" s="97"/>
+    </row>
+    <row r="49" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A49" s="94"/>
+      <c r="B49" s="31"/>
+      <c r="C49" s="31"/>
+      <c r="D49" s="32"/>
+      <c r="J49" s="33"/>
+      <c r="K49" s="31"/>
+      <c r="L49" s="31"/>
+      <c r="M49" s="97"/>
+    </row>
+    <row r="50" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A50" s="94"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="H50" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="J50" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="K50" s="25"/>
+      <c r="L50" s="28"/>
+      <c r="M50" s="97"/>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" s="94"/>
+      <c r="B51" s="25"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="E51" s="34"/>
+      <c r="F51" s="34"/>
+      <c r="G51" s="34"/>
+      <c r="H51" s="34"/>
+      <c r="I51" s="35"/>
+      <c r="J51" s="27"/>
+      <c r="K51" s="25"/>
+      <c r="L51" s="28"/>
+      <c r="M51" s="97"/>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" s="94"/>
+      <c r="B52" s="25"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="J52" s="27"/>
+      <c r="K52" s="25"/>
+      <c r="L52" s="28"/>
+      <c r="M52" s="97"/>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" s="94"/>
+      <c r="B53" s="25"/>
+      <c r="C53" s="25"/>
+      <c r="D53" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="77" t="s">
+      <c r="J53" s="29"/>
+      <c r="K53" s="25"/>
+      <c r="L53" s="28"/>
+      <c r="M53" s="97"/>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" s="94"/>
+      <c r="B54" s="25"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="77"/>
-    </row>
-    <row r="4" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="78" t="s">
+      <c r="J54" s="29"/>
+      <c r="K54" s="25"/>
+      <c r="L54" s="25"/>
+      <c r="M54" s="97"/>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" s="94"/>
+      <c r="B55" s="90" t="s">
+        <v>128</v>
+      </c>
+      <c r="C55" s="90"/>
+      <c r="D55" s="91"/>
+      <c r="J55" s="92" t="s">
+        <v>159</v>
+      </c>
+      <c r="K55" s="90"/>
+      <c r="L55" s="90"/>
+      <c r="M55" s="97"/>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" s="94"/>
+      <c r="B56" s="31"/>
+      <c r="C56" s="31"/>
+      <c r="D56" s="32"/>
+      <c r="J56" s="33"/>
+      <c r="K56" s="31"/>
+      <c r="L56" s="31"/>
+      <c r="M56" s="97"/>
+    </row>
+    <row r="57" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A57" s="95"/>
+      <c r="B57" s="36"/>
+      <c r="C57" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="D57" s="38"/>
+      <c r="J57" s="39"/>
+      <c r="K57" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="L57" s="36"/>
+      <c r="M57" s="98"/>
+    </row>
+    <row r="58" spans="1:13" ht="15.75" thickBot="1"/>
+    <row r="59" spans="1:13">
+      <c r="A59" s="93" t="s">
         <v>142</v>
       </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78"/>
-      <c r="K4" s="78"/>
-      <c r="L4" s="78"/>
-      <c r="M4" s="78"/>
-    </row>
-    <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N5" s="24"/>
-    </row>
-    <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="71" t="s">
-        <v>146</v>
-      </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="26" t="s">
-        <v>135</v>
-      </c>
-      <c r="F6" s="51" t="s">
-        <v>162</v>
-      </c>
-      <c r="H6" s="52" t="s">
-        <v>163</v>
-      </c>
-      <c r="J6" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="K6" s="25"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="74" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="72"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="H7" s="46" t="s">
+      <c r="B59" s="21"/>
+      <c r="C59" s="21"/>
+      <c r="D59" s="22" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="A60" s="94"/>
+      <c r="B60" s="25"/>
+      <c r="C60" s="25"/>
+      <c r="D60" s="26" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
+      <c r="A61" s="94"/>
+      <c r="B61" s="25"/>
+      <c r="C61" s="25"/>
+      <c r="D61" s="26" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
+      <c r="A62" s="94"/>
+      <c r="B62" s="25"/>
+      <c r="C62" s="25"/>
+      <c r="D62" s="26" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
+      <c r="A63" s="94"/>
+      <c r="B63" s="25"/>
+      <c r="C63" s="25"/>
+      <c r="D63" s="26" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
+      <c r="A64" s="94"/>
+      <c r="B64" s="90" t="s">
+        <v>128</v>
+      </c>
+      <c r="C64" s="90"/>
+      <c r="D64" s="91"/>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="94"/>
+      <c r="B65" s="31"/>
+      <c r="C65" s="31"/>
+      <c r="D65" s="32"/>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="94"/>
+      <c r="B66" s="25"/>
+      <c r="C66" s="25"/>
+      <c r="D66" s="26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="94"/>
+      <c r="B67" s="25"/>
+      <c r="C67" s="25"/>
+      <c r="D67" s="26" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="94"/>
+      <c r="B68" s="25"/>
+      <c r="C68" s="25"/>
+      <c r="D68" s="26" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="94"/>
+      <c r="B69" s="25"/>
+      <c r="C69" s="25"/>
+      <c r="D69" s="26" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="94"/>
+      <c r="B70" s="25"/>
+      <c r="C70" s="25"/>
+      <c r="D70" s="26" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="94"/>
+      <c r="B71" s="90" t="s">
+        <v>128</v>
+      </c>
+      <c r="C71" s="90"/>
+      <c r="D71" s="91"/>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="94"/>
+      <c r="B72" s="31"/>
+      <c r="C72" s="31"/>
+      <c r="D72" s="32"/>
+    </row>
+    <row r="73" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A73" s="95"/>
+      <c r="B73" s="36"/>
+      <c r="C73" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="J7" s="31" t="s">
-        <v>138</v>
-      </c>
-      <c r="K7" s="29"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="75"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="72"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="H8" s="47" t="s">
-        <v>157</v>
-      </c>
-      <c r="J8" s="33"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="75"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="72"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="30"/>
-      <c r="H9" s="47" t="s">
-        <v>156</v>
-      </c>
-      <c r="J9" s="33"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="75"/>
-    </row>
-    <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="72"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="34"/>
-      <c r="H10" s="48" t="s">
-        <v>158</v>
-      </c>
-      <c r="J10" s="33"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="75"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="72"/>
-      <c r="B11" s="68" t="s">
-        <v>133</v>
-      </c>
-      <c r="C11" s="68"/>
-      <c r="D11" s="69"/>
-      <c r="J11" s="70" t="s">
-        <v>136</v>
-      </c>
-      <c r="K11" s="68"/>
-      <c r="L11" s="68"/>
-      <c r="M11" s="75"/>
-    </row>
-    <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="72"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="36"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="75"/>
-    </row>
-    <row r="13" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="72"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="H13" s="52" t="s">
-        <v>163</v>
-      </c>
-      <c r="J13" s="31" t="s">
-        <v>161</v>
-      </c>
-      <c r="K13" s="29"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="75"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="72"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="75"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="72"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="J15" s="31"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="75"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="72"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="30"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="32"/>
-      <c r="M16" s="75"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="72"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="34"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="75"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="72"/>
-      <c r="B18" s="68" t="s">
-        <v>133</v>
-      </c>
-      <c r="C18" s="68"/>
-      <c r="D18" s="69"/>
-      <c r="J18" s="70" t="s">
-        <v>164</v>
-      </c>
-      <c r="K18" s="68"/>
-      <c r="L18" s="68"/>
-      <c r="M18" s="75"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="72"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="36"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="75"/>
-    </row>
-    <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="73"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="41" t="s">
-        <v>144</v>
-      </c>
-      <c r="D20" s="42"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="41" t="s">
-        <v>144</v>
-      </c>
-      <c r="L20" s="40"/>
-      <c r="M20" s="76"/>
-    </row>
-    <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="71" t="s">
-        <v>147</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="26" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="72"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="30" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="72"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="30" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="72"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="30"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="72"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="34"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="72"/>
-      <c r="B27" s="68" t="s">
-        <v>133</v>
-      </c>
-      <c r="C27" s="68"/>
-      <c r="D27" s="69"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="72"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="36"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="72"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="30" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="72"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="30" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="72"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="30" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="72"/>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="30"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="72"/>
-      <c r="B33" s="29"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="34"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="72"/>
-      <c r="B34" s="68" t="s">
-        <v>133</v>
-      </c>
-      <c r="C34" s="68"/>
-      <c r="D34" s="69"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="72"/>
-      <c r="B35" s="35"/>
-      <c r="C35" s="35"/>
-      <c r="D35" s="36"/>
-    </row>
-    <row r="36" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="73"/>
-      <c r="B36" s="40"/>
-      <c r="C36" s="41" t="s">
-        <v>144</v>
-      </c>
-      <c r="D36" s="42"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="44" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B39" s="38"/>
-      <c r="C39" s="38"/>
-      <c r="D39" s="38"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B40" s="38"/>
-      <c r="C40" s="38"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="38"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="38"/>
-      <c r="I40" s="39"/>
-    </row>
-    <row r="41" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="78" t="s">
-        <v>151</v>
-      </c>
-      <c r="B41" s="78"/>
-      <c r="C41" s="78"/>
-      <c r="D41" s="78"/>
-      <c r="E41" s="78"/>
-      <c r="F41" s="78"/>
-      <c r="G41" s="78"/>
-      <c r="H41" s="78"/>
-      <c r="I41" s="78"/>
-      <c r="J41" s="78"/>
-      <c r="K41" s="78"/>
-      <c r="L41" s="78"/>
-      <c r="M41" s="78"/>
-    </row>
-    <row r="42" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F42" s="83" t="s">
-        <v>180</v>
-      </c>
-      <c r="H42" s="85" t="s">
-        <v>183</v>
-      </c>
-      <c r="N42" s="24"/>
-    </row>
-    <row r="43" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="71" t="s">
-        <v>146</v>
-      </c>
-      <c r="B43" s="25"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="26" t="s">
-        <v>135</v>
-      </c>
-      <c r="F43" s="84" t="s">
-        <v>179</v>
-      </c>
-      <c r="H43" s="86" t="s">
-        <v>181</v>
-      </c>
-      <c r="J43" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="K43" s="25"/>
-      <c r="L43" s="28"/>
-      <c r="M43" s="74" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="72"/>
-      <c r="B44" s="29"/>
-      <c r="C44" s="29"/>
-      <c r="D44" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="H44" s="46" t="s">
+      <c r="D73" s="38"/>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="40" t="s">
         <v>139</v>
-      </c>
-      <c r="J44" s="31" t="s">
-        <v>143</v>
-      </c>
-      <c r="K44" s="29"/>
-      <c r="L44" s="32"/>
-      <c r="M44" s="75"/>
-    </row>
-    <row r="45" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="72"/>
-      <c r="B45" s="29"/>
-      <c r="C45" s="29"/>
-      <c r="D45" s="30" t="s">
-        <v>153</v>
-      </c>
-      <c r="H45" s="48" t="s">
-        <v>140</v>
-      </c>
-      <c r="J45" s="33"/>
-      <c r="K45" s="29"/>
-      <c r="L45" s="32"/>
-      <c r="M45" s="75"/>
-    </row>
-    <row r="46" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="72"/>
-      <c r="B46" s="29"/>
-      <c r="C46" s="29"/>
-      <c r="D46" s="30" t="s">
-        <v>159</v>
-      </c>
-      <c r="F46" s="49" t="s">
-        <v>182</v>
-      </c>
-      <c r="G46" s="53"/>
-      <c r="J46" s="33"/>
-      <c r="K46" s="29"/>
-      <c r="L46" s="32"/>
-      <c r="M46" s="75"/>
-    </row>
-    <row r="47" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="72"/>
-      <c r="B47" s="29"/>
-      <c r="C47" s="29"/>
-      <c r="D47" s="30" t="s">
-        <v>160</v>
-      </c>
-      <c r="F47" s="50" t="s">
-        <v>156</v>
-      </c>
-      <c r="G47" s="54"/>
-      <c r="J47" s="33"/>
-      <c r="K47" s="29"/>
-      <c r="L47" s="29"/>
-      <c r="M47" s="75"/>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="72"/>
-      <c r="B48" s="68" t="s">
-        <v>133</v>
-      </c>
-      <c r="C48" s="68"/>
-      <c r="D48" s="69"/>
-      <c r="J48" s="70" t="s">
-        <v>176</v>
-      </c>
-      <c r="K48" s="68"/>
-      <c r="L48" s="68"/>
-      <c r="M48" s="75"/>
-    </row>
-    <row r="49" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="72"/>
-      <c r="B49" s="35"/>
-      <c r="C49" s="35"/>
-      <c r="D49" s="36"/>
-      <c r="J49" s="37"/>
-      <c r="K49" s="35"/>
-      <c r="L49" s="35"/>
-      <c r="M49" s="75"/>
-    </row>
-    <row r="50" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="72"/>
-      <c r="B50" s="29"/>
-      <c r="C50" s="29"/>
-      <c r="D50" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="H50" s="52" t="s">
-        <v>178</v>
-      </c>
-      <c r="J50" s="31" t="s">
-        <v>161</v>
-      </c>
-      <c r="K50" s="29"/>
-      <c r="L50" s="32"/>
-      <c r="M50" s="75"/>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51" s="72"/>
-      <c r="B51" s="29"/>
-      <c r="C51" s="29"/>
-      <c r="D51" s="30" t="s">
-        <v>152</v>
-      </c>
-      <c r="E51" s="38"/>
-      <c r="F51" s="38"/>
-      <c r="G51" s="38"/>
-      <c r="H51" s="38"/>
-      <c r="I51" s="39"/>
-      <c r="J51" s="31"/>
-      <c r="K51" s="29"/>
-      <c r="L51" s="32"/>
-      <c r="M51" s="75"/>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52" s="72"/>
-      <c r="B52" s="29"/>
-      <c r="C52" s="29"/>
-      <c r="D52" s="30" t="s">
-        <v>153</v>
-      </c>
-      <c r="J52" s="31"/>
-      <c r="K52" s="29"/>
-      <c r="L52" s="32"/>
-      <c r="M52" s="75"/>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53" s="72"/>
-      <c r="B53" s="29"/>
-      <c r="C53" s="29"/>
-      <c r="D53" s="30" t="s">
-        <v>154</v>
-      </c>
-      <c r="J53" s="33"/>
-      <c r="K53" s="29"/>
-      <c r="L53" s="32"/>
-      <c r="M53" s="75"/>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A54" s="72"/>
-      <c r="B54" s="29"/>
-      <c r="C54" s="29"/>
-      <c r="D54" s="30" t="s">
-        <v>155</v>
-      </c>
-      <c r="J54" s="33"/>
-      <c r="K54" s="29"/>
-      <c r="L54" s="29"/>
-      <c r="M54" s="75"/>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A55" s="72"/>
-      <c r="B55" s="68" t="s">
-        <v>133</v>
-      </c>
-      <c r="C55" s="68"/>
-      <c r="D55" s="69"/>
-      <c r="J55" s="70" t="s">
-        <v>164</v>
-      </c>
-      <c r="K55" s="68"/>
-      <c r="L55" s="68"/>
-      <c r="M55" s="75"/>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A56" s="72"/>
-      <c r="B56" s="35"/>
-      <c r="C56" s="35"/>
-      <c r="D56" s="36"/>
-      <c r="J56" s="37"/>
-      <c r="K56" s="35"/>
-      <c r="L56" s="35"/>
-      <c r="M56" s="75"/>
-    </row>
-    <row r="57" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="73"/>
-      <c r="B57" s="40"/>
-      <c r="C57" s="41" t="s">
-        <v>144</v>
-      </c>
-      <c r="D57" s="42"/>
-      <c r="J57" s="43"/>
-      <c r="K57" s="41" t="s">
-        <v>144</v>
-      </c>
-      <c r="L57" s="40"/>
-      <c r="M57" s="76"/>
-    </row>
-    <row r="58" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A59" s="71" t="s">
-        <v>147</v>
-      </c>
-      <c r="B59" s="25"/>
-      <c r="C59" s="25"/>
-      <c r="D59" s="26" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A60" s="72"/>
-      <c r="B60" s="29"/>
-      <c r="C60" s="29"/>
-      <c r="D60" s="30" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A61" s="72"/>
-      <c r="B61" s="29"/>
-      <c r="C61" s="29"/>
-      <c r="D61" s="30" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A62" s="72"/>
-      <c r="B62" s="29"/>
-      <c r="C62" s="29"/>
-      <c r="D62" s="30" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A63" s="72"/>
-      <c r="B63" s="29"/>
-      <c r="C63" s="29"/>
-      <c r="D63" s="30" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A64" s="72"/>
-      <c r="B64" s="68" t="s">
-        <v>133</v>
-      </c>
-      <c r="C64" s="68"/>
-      <c r="D64" s="69"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="72"/>
-      <c r="B65" s="35"/>
-      <c r="C65" s="35"/>
-      <c r="D65" s="36"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="72"/>
-      <c r="B66" s="29"/>
-      <c r="C66" s="29"/>
-      <c r="D66" s="30" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="72"/>
-      <c r="B67" s="29"/>
-      <c r="C67" s="29"/>
-      <c r="D67" s="30" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="72"/>
-      <c r="B68" s="29"/>
-      <c r="C68" s="29"/>
-      <c r="D68" s="30" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="72"/>
-      <c r="B69" s="29"/>
-      <c r="C69" s="29"/>
-      <c r="D69" s="30" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="72"/>
-      <c r="B70" s="29"/>
-      <c r="C70" s="29"/>
-      <c r="D70" s="30" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="72"/>
-      <c r="B71" s="68" t="s">
-        <v>133</v>
-      </c>
-      <c r="C71" s="68"/>
-      <c r="D71" s="69"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="72"/>
-      <c r="B72" s="35"/>
-      <c r="C72" s="35"/>
-      <c r="D72" s="36"/>
-    </row>
-    <row r="73" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="73"/>
-      <c r="B73" s="40"/>
-      <c r="C73" s="41" t="s">
-        <v>144</v>
-      </c>
-      <c r="D73" s="42"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="44" t="s">
-        <v>144</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A59:A73"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="B1:L1"/>
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="B3:L3"/>
+    <mergeCell ref="A4:M4"/>
+    <mergeCell ref="B34:D34"/>
     <mergeCell ref="A41:M41"/>
     <mergeCell ref="A43:A57"/>
     <mergeCell ref="M43:M57"/>
@@ -3813,21 +4621,13 @@
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="A6:A20"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="J55:L55"/>
     <mergeCell ref="A22:A36"/>
     <mergeCell ref="J18:L18"/>
     <mergeCell ref="M6:M20"/>
-    <mergeCell ref="B1:L1"/>
-    <mergeCell ref="B2:L2"/>
-    <mergeCell ref="B3:L3"/>
-    <mergeCell ref="A4:M4"/>
-    <mergeCell ref="B34:D34"/>
     <mergeCell ref="B48:D48"/>
     <mergeCell ref="J48:L48"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="J55:L55"/>
-    <mergeCell ref="A59:A73"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B71:D71"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3841,35 +4641,35 @@
   <dimension ref="A2:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D2"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="11.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="47.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="67" t="s">
-        <v>107</v>
-      </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-    </row>
-    <row r="3" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="18.75">
+      <c r="B2" s="101" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+    </row>
+    <row r="3" spans="1:4" s="16" customFormat="1">
+      <c r="B3" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="B4" s="11">
         <v>41069</v>
       </c>
@@ -3877,32 +4677,32 @@
         <v>95</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="B5" s="11">
         <v>41186</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="B6" s="11">
         <v>41244</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="B7" s="11">
         <v>41300</v>
       </c>
@@ -3910,21 +4710,21 @@
         <v>96</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="B8" s="11">
         <v>41456</v>
       </c>
-      <c r="C8" s="13" t="s">
-        <v>119</v>
+      <c r="C8" s="14" t="s">
+        <v>118</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="B9" s="11">
         <v>41518</v>
       </c>
@@ -3933,164 +4733,164 @@
       </c>
       <c r="D9" s="13"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4">
       <c r="B10" s="11">
         <v>41665</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D10" s="13"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4">
       <c r="B11" s="11">
         <v>41821</v>
       </c>
-      <c r="C11" s="13" t="s">
-        <v>120</v>
+      <c r="C11" s="14" t="s">
+        <v>119</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="B12" s="11">
         <v>41883</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D12" s="13"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4">
       <c r="B13" s="11">
         <v>42030</v>
       </c>
-      <c r="C13" s="13" t="s">
-        <v>98</v>
+      <c r="C13" s="14" t="s">
+        <v>274</v>
       </c>
       <c r="D13" s="13"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4">
       <c r="B14" s="11">
         <v>42219</v>
       </c>
-      <c r="C14" s="15" t="s">
-        <v>121</v>
+      <c r="C14" s="14" t="s">
+        <v>275</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="B15" s="11">
         <v>42221</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D15" s="13"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4">
       <c r="A16" s="10"/>
       <c r="B16" s="11">
         <v>42248</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D16" s="13"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4">
       <c r="A17" s="10"/>
       <c r="B17" s="11">
         <v>42278</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D17" s="13"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4">
       <c r="B18" s="11">
         <v>42395</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D18" s="13"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4">
       <c r="B19" s="11">
         <v>42491</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D19" s="13"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4">
       <c r="B20" s="11">
         <v>42552</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D20" s="13"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4">
       <c r="B21" s="11">
         <v>42580</v>
       </c>
-      <c r="C21" s="13" t="s">
-        <v>122</v>
+      <c r="C21" s="14" t="s">
+        <v>120</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="B22" s="11">
         <v>42731</v>
       </c>
-      <c r="C22" s="18" t="s">
-        <v>104</v>
+      <c r="C22" s="17" t="s">
+        <v>103</v>
       </c>
       <c r="D22" s="13"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4">
       <c r="B23" s="11">
         <v>42762</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D23" s="13"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4">
       <c r="B24" s="11">
         <v>42771</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="B25" s="8"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4">
       <c r="B26" s="8"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4">
       <c r="B27" s="8"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4">
       <c r="B28" s="8"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4">
       <c r="B29" s="8"/>
     </row>
   </sheetData>
@@ -4099,54 +4899,136 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="46" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="7"/>
+    <col min="1" max="1" width="46" style="60" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.375" style="60" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.875" style="60" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="9.75" style="60" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="60"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+    <row r="1" spans="1:6" s="74" customFormat="1">
+      <c r="A1" s="73" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="74" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1" s="73" t="s">
+        <v>288</v>
+      </c>
+      <c r="D1" s="73" t="s">
+        <v>301</v>
+      </c>
+      <c r="E1" s="73" t="s">
+        <v>302</v>
+      </c>
+      <c r="F1" s="73" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="60" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="19" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="B2" s="75" t="s">
+        <v>289</v>
+      </c>
+      <c r="C2" s="75" t="s">
+        <v>290</v>
+      </c>
+      <c r="D2" s="60">
+        <v>1715</v>
+      </c>
+      <c r="E2" s="60">
+        <v>1763</v>
+      </c>
+      <c r="F2" s="60">
+        <f>E2-D2</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="60" t="s">
         <v>93</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="B3" s="60" t="s">
+        <v>291</v>
+      </c>
+      <c r="C3" s="75" t="s">
+        <v>292</v>
+      </c>
+      <c r="D3" s="60">
+        <v>1895</v>
+      </c>
+      <c r="E3" s="60">
+        <v>1976</v>
+      </c>
+      <c r="F3" s="60">
+        <f t="shared" ref="F3:F5" si="0">E3-D3</f>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="60" t="s">
         <v>92</v>
       </c>
-      <c r="B4" s="19" t="s">
-        <v>132</v>
+      <c r="B4" s="75" t="s">
+        <v>293</v>
+      </c>
+      <c r="C4" s="75" t="s">
+        <v>294</v>
+      </c>
+      <c r="D4" s="60">
+        <v>1942</v>
+      </c>
+      <c r="E4" s="60">
+        <v>2016</v>
+      </c>
+      <c r="F4" s="60">
+        <f t="shared" si="0"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="B5" s="60" t="s">
+        <v>297</v>
+      </c>
+      <c r="C5" s="111" t="s">
+        <v>298</v>
+      </c>
+      <c r="D5" s="60" t="s">
+        <v>295</v>
+      </c>
+      <c r="E5" s="60" t="s">
+        <v>296</v>
+      </c>
+      <c r="F5" s="60">
+        <f t="shared" si="0"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="B6" s="60" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="B7" s="60" t="s">
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -4164,53 +5046,53 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="79"/>
-    <col min="2" max="2" width="14.25" style="79" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.375" style="79" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="79"/>
+    <col min="1" max="1" width="9" style="51"/>
+    <col min="2" max="2" width="14.25" style="51" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.375" style="51" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="51"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" s="80" t="s">
-        <v>116</v>
-      </c>
-      <c r="B1" s="80" t="s">
-        <v>174</v>
-      </c>
-      <c r="C1" s="80" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="79">
+    <row r="1" spans="1:3">
+      <c r="A1" s="52" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" s="52" t="s">
+        <v>167</v>
+      </c>
+      <c r="C1" s="52" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="51">
         <v>201508</v>
       </c>
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="51" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2" s="51" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="51">
+        <v>201607</v>
+      </c>
+      <c r="B3" s="51" t="s">
+        <v>161</v>
+      </c>
+      <c r="C3" s="51" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" s="51" t="s">
         <v>165</v>
       </c>
-      <c r="C2" s="79" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="79">
-        <v>201607</v>
-      </c>
-      <c r="B3" s="79" t="s">
-        <v>166</v>
-      </c>
-      <c r="C3" s="79" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B4" s="79" t="s">
-        <v>170</v>
-      </c>
-      <c r="C4" s="79" t="s">
-        <v>168</v>
+      <c r="C4" s="51" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -4224,22 +5106,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="3" width="2.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="B1" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="C1">
         <v>0</v>
@@ -4249,12 +5131,12 @@
         <v>sed -i 's/a/o/g' input.q</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="B2" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -4264,12 +5146,12 @@
         <v>sed -i 's/b/D/g' input.q</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="B3" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -4279,11 +5161,11 @@
         <v>sed -i 's/c/S/g' input.q</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>187</v>
-      </c>
-      <c r="B4" s="79">
+        <v>180</v>
+      </c>
+      <c r="B4" s="51">
         <v>7</v>
       </c>
       <c r="C4">
@@ -4294,12 +5176,12 @@
         <v>sed -i 's/d/7/g' input.q</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="B5" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -4309,12 +5191,12 @@
         <v>sed -i 's/e/j/g' input.q</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B6" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -4324,12 +5206,12 @@
         <v>sed -i 's/f/y/g' input.q</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="B7" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -4339,11 +5221,11 @@
         <v>sed -i 's/g/N/g' input.q</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>191</v>
-      </c>
-      <c r="B8" s="79">
+        <v>184</v>
+      </c>
+      <c r="B8" s="51">
         <v>2</v>
       </c>
       <c r="C8">
@@ -4354,12 +5236,12 @@
         <v>sed -i 's/h/2/g' input.q</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="B9" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -4369,12 +5251,12 @@
         <v>sed -i 's/i/b/g' input.q</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="B10" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -4384,12 +5266,12 @@
         <v>sed -i 's/j/g/g' input.q</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="B11" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -4399,12 +5281,12 @@
         <v>sed -i 's/k/q/g' input.q</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="B12" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -4414,12 +5296,12 @@
         <v>sed -i 's/l/v/g' input.q</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="B13" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -4429,12 +5311,12 @@
         <v>sed -i 's/m/F/g' input.q</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="B14" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -4444,12 +5326,12 @@
         <v>sed -i 's/n/K/g' input.q</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="B15" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="C15">
         <v>2</v>
@@ -4459,12 +5341,12 @@
         <v>sed -i 's/o/U/g' input.q</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="B16" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="C16">
         <v>2</v>
@@ -4474,12 +5356,12 @@
         <v>sed -i 's/p/Z/g' input.q</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B17" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="C17">
         <v>3</v>
@@ -4489,12 +5371,12 @@
         <v>sed -i 's/q/a/g' input.q</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="B18" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="C18">
         <v>3</v>
@@ -4504,12 +5386,12 @@
         <v>sed -i 's/r/i/g' input.q</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="B19" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="C19">
         <v>3</v>
@@ -4519,12 +5401,12 @@
         <v>sed -i 's/s/m/g' input.q</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B20" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="C20">
         <v>3</v>
@@ -4534,12 +5416,12 @@
         <v>sed -i 's/t/p/g' input.q</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="B21" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="C21">
         <v>3</v>
@@ -4549,12 +5431,12 @@
         <v>sed -i 's/u/x/g' input.q</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="B22" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="C22">
         <v>3</v>
@@ -4564,12 +5446,12 @@
         <v>sed -i 's/v/B/g' input.q</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B23" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="C23">
         <v>3</v>
@@ -4579,12 +5461,12 @@
         <v>sed -i 's/w/E/g' input.q</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="B24" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C24">
         <v>3</v>
@@ -4594,12 +5476,12 @@
         <v>sed -i 's/x/M/g' input.q</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="B25" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="C25">
         <v>3</v>
@@ -4609,12 +5491,12 @@
         <v>sed -i 's/y/Q/g' input.q</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="B26" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="C26">
         <v>3</v>
@@ -4624,11 +5506,11 @@
         <v>sed -i 's/z/T/g' input.q</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>211</v>
-      </c>
-      <c r="B27" s="79">
+        <v>204</v>
+      </c>
+      <c r="B27" s="51">
         <v>1</v>
       </c>
       <c r="C27">
@@ -4639,11 +5521,11 @@
         <v>sed -i 's/A/1/g' input.q</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>212</v>
-      </c>
-      <c r="B28" s="79">
+        <v>205</v>
+      </c>
+      <c r="B28" s="51">
         <v>5</v>
       </c>
       <c r="C28">
@@ -4654,12 +5536,12 @@
         <v>sed -i 's/B/5/g' input.q</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="B29" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C29">
         <v>4</v>
@@ -4669,12 +5551,12 @@
         <v>sed -i 's/C/h/g' input.q</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="B30" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C30">
         <v>4</v>
@@ -4684,12 +5566,12 @@
         <v>sed -i 's/D/w/g' input.q</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="B31" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="C31">
         <v>4</v>
@@ -4699,11 +5581,11 @@
         <v>sed -i 's/E/L/g' input.q</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>216</v>
-      </c>
-      <c r="B32" s="79">
+        <v>209</v>
+      </c>
+      <c r="B32" s="51">
         <v>0</v>
       </c>
       <c r="C32">
@@ -4714,11 +5596,11 @@
         <v>sed -i 's/F/0/g' input.q</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>217</v>
-      </c>
-      <c r="B33" s="79">
+        <v>210</v>
+      </c>
+      <c r="B33" s="51">
         <v>8</v>
       </c>
       <c r="C33">
@@ -4729,12 +5611,12 @@
         <v>sed -i 's/G/8/g' input.q</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="B34" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C34">
         <v>5</v>
@@ -4744,12 +5626,12 @@
         <v>sed -i 's/H/d/g' input.q</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="B35" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="C35">
         <v>5</v>
@@ -4759,12 +5641,12 @@
         <v>sed -i 's/I/l/g' input.q</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="B36" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="C36">
         <v>5</v>
@@ -4774,12 +5656,12 @@
         <v>sed -i 's/J/s/g' input.q</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="B37" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C37">
         <v>5</v>
@@ -4789,12 +5671,12 @@
         <v>sed -i 's/K/A/g' input.q</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="B38" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C38">
         <v>5</v>
@@ -4804,12 +5686,12 @@
         <v>sed -i 's/L/H/g' input.q</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="B39" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="C39">
         <v>5</v>
@@ -4819,12 +5701,12 @@
         <v>sed -i 's/M/P/g' input.q</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="B40" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="C40">
         <v>5</v>
@@ -4834,11 +5716,11 @@
         <v>sed -i 's/N/W/g' input.q</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>224</v>
-      </c>
-      <c r="B41" s="79">
+        <v>217</v>
+      </c>
+      <c r="B41" s="51">
         <v>4</v>
       </c>
       <c r="C41">
@@ -4849,12 +5731,12 @@
         <v>sed -i 's/O/4/g' input.q</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B42" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="C42">
         <v>6</v>
@@ -4864,12 +5746,12 @@
         <v>sed -i 's/P/c/g' input.q</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="B43" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="C43">
         <v>6</v>
@@ -4879,12 +5761,12 @@
         <v>sed -i 's/Q/k/g' input.q</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="B44" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="C44">
         <v>6</v>
@@ -4894,12 +5776,12 @@
         <v>sed -i 's/R/r/g' input.q</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="B45" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C45">
         <v>6</v>
@@ -4909,12 +5791,12 @@
         <v>sed -i 's/S/z/g' input.q</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="B46" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C46">
         <v>6</v>
@@ -4924,12 +5806,12 @@
         <v>sed -i 's/T/G/g' input.q</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="B47" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="C47">
         <v>6</v>
@@ -4939,12 +5821,12 @@
         <v>sed -i 's/U/O/g' input.q</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="B48" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="C48">
         <v>6</v>
@@ -4954,11 +5836,11 @@
         <v>sed -i 's/V/V/g' input.q</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>232</v>
-      </c>
-      <c r="B49" s="79">
+        <v>225</v>
+      </c>
+      <c r="B49" s="51">
         <v>3</v>
       </c>
       <c r="C49">
@@ -4969,11 +5851,11 @@
         <v>sed -i 's/W/3/g' input.q</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>233</v>
-      </c>
-      <c r="B50" s="79">
+        <v>226</v>
+      </c>
+      <c r="B50" s="51">
         <v>9</v>
       </c>
       <c r="C50">
@@ -4984,12 +5866,12 @@
         <v>sed -i 's/X/9/g' input.q</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="B51" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="C51">
         <v>7</v>
@@ -4999,12 +5881,12 @@
         <v>sed -i 's/Y/n/g' input.q</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="B52" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="C52">
         <v>7</v>
@@ -5014,12 +5896,12 @@
         <v>sed -i 's/Z/C/g' input.q</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A53" s="79">
+    <row r="53" spans="1:4">
+      <c r="A53" s="51">
         <v>0</v>
       </c>
       <c r="B53" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="C53">
         <v>7</v>
@@ -5029,11 +5911,11 @@
         <v>sed -i 's/0/R/g' input.q</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A54" s="79">
+    <row r="54" spans="1:4">
+      <c r="A54" s="51">
         <v>1</v>
       </c>
-      <c r="B54" s="79">
+      <c r="B54" s="51">
         <v>6</v>
       </c>
       <c r="C54">
@@ -5044,12 +5926,12 @@
         <v>sed -i 's/1/6/g' input.q</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A55" s="79">
+    <row r="55" spans="1:4">
+      <c r="A55" s="51">
         <v>2</v>
       </c>
       <c r="B55" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="C55">
         <v>8</v>
@@ -5059,12 +5941,12 @@
         <v>sed -i 's/2/e/g' input.q</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A56" s="79">
+    <row r="56" spans="1:4">
+      <c r="A56" s="51">
         <v>3</v>
       </c>
       <c r="B56" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="C56">
         <v>8</v>
@@ -5074,12 +5956,12 @@
         <v>sed -i 's/3/t/g' input.q</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A57" s="79">
+    <row r="57" spans="1:4">
+      <c r="A57" s="51">
         <v>4</v>
       </c>
       <c r="B57" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="C57">
         <v>8</v>
@@ -5089,12 +5971,12 @@
         <v>sed -i 's/4/I/g' input.q</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A58" s="79">
+    <row r="58" spans="1:4">
+      <c r="A58" s="51">
         <v>5</v>
       </c>
       <c r="B58" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="C58">
         <v>8</v>
@@ -5104,12 +5986,12 @@
         <v>sed -i 's/5/X/g' input.q</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A59" s="79">
+    <row r="59" spans="1:4">
+      <c r="A59" s="51">
         <v>6</v>
       </c>
       <c r="B59" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="C59">
         <v>9</v>
@@ -5119,12 +6001,12 @@
         <v>sed -i 's/6/f/g' input.q</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A60" s="79">
+    <row r="60" spans="1:4">
+      <c r="A60" s="51">
         <v>7</v>
       </c>
       <c r="B60" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="C60">
         <v>9</v>
@@ -5134,12 +6016,12 @@
         <v>sed -i 's/7/u/g' input.q</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A61" s="79">
+    <row r="61" spans="1:4">
+      <c r="A61" s="51">
         <v>8</v>
       </c>
       <c r="B61" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C61">
         <v>9</v>
@@ -5149,12 +6031,12 @@
         <v>sed -i 's/8/J/g' input.q</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A62" s="79">
+    <row r="62" spans="1:4">
+      <c r="A62" s="51">
         <v>9</v>
       </c>
       <c r="B62" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="C62">
         <v>9</v>
@@ -5171,4 +6053,340 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="7.375" style="60" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.25" style="60" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.625" style="60" customWidth="1"/>
+    <col min="4" max="4" width="23.125" style="60" customWidth="1"/>
+    <col min="5" max="5" width="60.5" style="60" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="60"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1">
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+    </row>
+    <row r="2" spans="1:5" ht="15.75">
+      <c r="A2" s="59" t="s">
+        <v>234</v>
+      </c>
+      <c r="B2" s="59" t="s">
+        <v>251</v>
+      </c>
+      <c r="D2" s="104" t="s">
+        <v>241</v>
+      </c>
+      <c r="E2" s="61" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="60" t="s">
+        <v>231</v>
+      </c>
+      <c r="B3" s="60">
+        <v>24</v>
+      </c>
+      <c r="D3" s="105"/>
+      <c r="E3" s="62" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="60" t="s">
+        <v>230</v>
+      </c>
+      <c r="B4" s="60" t="s">
+        <v>229</v>
+      </c>
+      <c r="D4" s="105"/>
+      <c r="E4" s="62" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="60" t="s">
+        <v>232</v>
+      </c>
+      <c r="B5" s="60" t="s">
+        <v>233</v>
+      </c>
+      <c r="D5" s="105"/>
+      <c r="E5" s="62" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="D6" s="105"/>
+      <c r="E6" s="62" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="D7" s="105"/>
+      <c r="E7" s="62" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="D8" s="105" t="s">
+        <v>244</v>
+      </c>
+      <c r="E8" s="62" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="D9" s="105"/>
+      <c r="E9" s="62" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" customHeight="1">
+      <c r="D10" s="65" t="s">
+        <v>245</v>
+      </c>
+      <c r="E10" s="62" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" thickBot="1">
+      <c r="D11" s="106" t="s">
+        <v>242</v>
+      </c>
+      <c r="E11" s="107"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1"/>
+    <row r="13" spans="1:5">
+      <c r="D13" s="104" t="s">
+        <v>241</v>
+      </c>
+      <c r="E13" s="61" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="D14" s="105"/>
+      <c r="E14" s="62" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="D15" s="66" t="s">
+        <v>248</v>
+      </c>
+      <c r="E15" s="62" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="D16" s="65" t="s">
+        <v>245</v>
+      </c>
+      <c r="E16" s="62" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" ht="15.75" thickBot="1">
+      <c r="D17" s="106" t="s">
+        <v>247</v>
+      </c>
+      <c r="E17" s="107"/>
+    </row>
+    <row r="18" spans="4:5" ht="15.75" thickBot="1"/>
+    <row r="19" spans="4:5">
+      <c r="D19" s="67"/>
+      <c r="E19" s="61"/>
+    </row>
+    <row r="20" spans="4:5" ht="15.75" thickBot="1">
+      <c r="D20" s="102" t="s">
+        <v>252</v>
+      </c>
+      <c r="E20" s="103"/>
+    </row>
+    <row r="21" spans="4:5" ht="15.75" thickBot="1"/>
+    <row r="22" spans="4:5">
+      <c r="D22" s="104" t="s">
+        <v>254</v>
+      </c>
+      <c r="E22" s="61" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="23" spans="4:5">
+      <c r="D23" s="105"/>
+      <c r="E23" s="62" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="24" spans="4:5">
+      <c r="D24" s="66" t="s">
+        <v>261</v>
+      </c>
+      <c r="E24" s="62" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="25" spans="4:5">
+      <c r="D25" s="66" t="s">
+        <v>259</v>
+      </c>
+      <c r="E25" s="62"/>
+    </row>
+    <row r="26" spans="4:5">
+      <c r="D26" s="108" t="s">
+        <v>245</v>
+      </c>
+      <c r="E26" s="62" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="27" spans="4:5">
+      <c r="D27" s="109"/>
+      <c r="E27" s="63" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="28" spans="4:5">
+      <c r="D28" s="68" t="s">
+        <v>260</v>
+      </c>
+      <c r="E28" s="63"/>
+    </row>
+    <row r="29" spans="4:5" ht="15.75" thickBot="1">
+      <c r="D29" s="106" t="s">
+        <v>253</v>
+      </c>
+      <c r="E29" s="107"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D2:D7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D17:E17"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="15.875" style="51" customWidth="1"/>
+    <col min="2" max="2" width="18.625" style="51" customWidth="1"/>
+    <col min="3" max="3" width="15.375" style="51" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="51"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="18.75">
+      <c r="A1" s="110" t="s">
+        <v>273</v>
+      </c>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="51" t="s">
+        <v>264</v>
+      </c>
+      <c r="B2" s="51">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="51" t="s">
+        <v>265</v>
+      </c>
+      <c r="B3" s="51">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="51" t="s">
+        <v>266</v>
+      </c>
+      <c r="B4" s="51" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="51" t="s">
+        <v>264</v>
+      </c>
+      <c r="B5" s="51">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="51" t="s">
+        <v>268</v>
+      </c>
+      <c r="B6" s="51">
+        <v>-1100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="69" t="s">
+        <v>269</v>
+      </c>
+      <c r="B7" s="69">
+        <v>2100</v>
+      </c>
+      <c r="C7" s="51" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="69" t="s">
+        <v>271</v>
+      </c>
+      <c r="B8" s="69">
+        <v>1600</v>
+      </c>
+      <c r="C8" s="51" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="51" t="s">
+        <v>264</v>
+      </c>
+      <c r="B9" s="51">
+        <v>3300</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/trunk/doc/22_output.xlsx
+++ b/trunk/doc/22_output.xlsx
@@ -4,29 +4,26 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="训练数据集" sheetId="4" r:id="rId1"/>
-    <sheet name="技术架构图-ecosystem" sheetId="5" r:id="rId2"/>
-    <sheet name="技术架构图-Hadoop" sheetId="13" r:id="rId3"/>
-    <sheet name="过去的五年" sheetId="10" r:id="rId4"/>
-    <sheet name="书籍" sheetId="11" r:id="rId5"/>
-    <sheet name="发展方向" sheetId="14" r:id="rId6"/>
-    <sheet name="替换脚本" sheetId="19" r:id="rId7"/>
-    <sheet name="Hadoop-资源管理" sheetId="20" r:id="rId8"/>
-    <sheet name="计算" sheetId="21" r:id="rId9"/>
-    <sheet name="Sheet1" sheetId="22" r:id="rId10"/>
+    <sheet name="技术架构图-Hadoop" sheetId="13" r:id="rId2"/>
+    <sheet name="过去的五年" sheetId="10" r:id="rId3"/>
+    <sheet name="书籍" sheetId="11" r:id="rId4"/>
+    <sheet name="替换脚本" sheetId="19" r:id="rId5"/>
+    <sheet name="Hadoop-资源管理" sheetId="20" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="23" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">替换脚本!$B$1:$C$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">替换脚本!$B$1:$C$52</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="328">
   <si>
     <t>国内数据</t>
   </si>
@@ -312,50 +309,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Spark Streaming
-(Dstream)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Spark SQL
-(DataFrame,DataSet)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Spark Core
-(RDD)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MapReduce</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yarn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hdfs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hive</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hadoop- The Definitive Guide, 4th Edition</t>
-  </si>
-  <si>
-    <t>Hadoop Operations</t>
-  </si>
-  <si>
-    <t>Packt.Spark.2.0.for.Beginners</t>
-  </si>
-  <si>
-    <t>Hadoop技术架构图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>高考结束</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -453,10 +406,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>求职南京</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>事件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -470,10 +419,6 @@
   </si>
   <si>
     <t>相关人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技术类</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -616,42 +561,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>数据库开发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hadoop开发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金融BI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>智慧城市AI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>企业资源管理ERP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>机器学习</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>应用框架</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技术</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>应用领域</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>namenode node</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -980,46 +889,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>余额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12月工资</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>服装</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>200+1000=-1200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公积金提取</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-22号银行办理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>深圳房租押金</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2-05号联系房东</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账户余额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>寒假工南京电子厂</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1028,141 +897,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>disk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yarn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hdfs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cpu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yarn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>存储系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计算框架</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>简述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>详述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>分布式存储：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>blocks</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>映射</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>hdfs</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>文件</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>cpu</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>memory</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>资源调度和任务监控</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开发框架</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>《红楼梦》</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曹雪芹</t>
   </si>
   <si>
     <r>
@@ -1197,21 +933,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>林语堂</t>
-  </si>
-  <si>
     <t>《白鹿原》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈忠实</t>
-  </si>
-  <si>
-    <t>1828</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1910</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1248,19 +970,6 @@
   </si>
   <si>
     <r>
-      <t>列夫</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>·尼古拉耶维奇·托尔斯泰</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
@@ -1324,16 +1033,587 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>出生日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>谢世日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在世时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>任职南京瑞银科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hadoop技术类书籍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>《</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Packt.Spark.2.0.for.Beginners</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>》</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>hadoop</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生态圈数据处理工具</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>shell</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>脚本</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>sqoop</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>导数工具</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>hive</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据仓库</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>hadoop-mapreduce</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分布式计算框架</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>hadoop-hdfs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分布式数据存储</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>hadoop-yarn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>集群资源管理</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>spark-core</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分布式内存计算框架</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>spark-streaming</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>流数据处理</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>spark-SQL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>结构化数据处理</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>oozie</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>作业调度系统</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>《</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Hadoop- The Definitive Guide, 4th Edition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>》</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>《</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Hadoop Operations</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>》</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《Programming_Hive.pdf》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>官方文档（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>hadoop,spark,hive,sqoop,oozie,scala</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>UltraEdit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>脚本编辑工具</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Excel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>宏（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>VBA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）调度工程文件统一生成工具</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>求职南京,暂住在顾长远家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>案例汇报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用对接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>知识储备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ppt存在的问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修整计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结合金融理财产品推荐系统进行补充</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据平台实现过程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在个人电脑上部署虚拟机模拟数据处理过程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗列大数据处理所需工具和开发技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>git/SVN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>项目版本控制工具</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>l_cust_basic_info.q</t>
+  </si>
+  <si>
+    <t>l_cust_bat_label_info.q</t>
+  </si>
+  <si>
+    <t>l_cust_cfb_cap_acct_info.q</t>
+  </si>
+  <si>
+    <t>l_cust_curr_prod_invest.q</t>
+  </si>
+  <si>
+    <t>l_cust_fix_time_prod_invest.q</t>
+  </si>
+  <si>
+    <t>l_cust_hold_asset_info.q</t>
+  </si>
+  <si>
+    <t>l_cust_hold_prod_info_ams.q</t>
+  </si>
+  <si>
+    <t>l_cust_hold_prod_info_any.q</t>
+  </si>
+  <si>
+    <t>l_cust_hold_prod_info_cfy.q</t>
+  </si>
+  <si>
+    <t>l_cust_hold_prod_info_dey.q</t>
+  </si>
+  <si>
+    <t>l_cust_hold_prod_info_hqy.q</t>
+  </si>
+  <si>
+    <t>l_cust_hold_prod_info_ste.q</t>
+  </si>
+  <si>
+    <t>l_cust_hold_prod_info_val.q</t>
+  </si>
+  <si>
+    <t>l_cust_hold_welfare_info.q</t>
+  </si>
+  <si>
+    <t>l_cust_impawn_fin_info.q</t>
+  </si>
+  <si>
+    <t>l_cust_invest_behav_ams.q</t>
+  </si>
+  <si>
+    <t>l_cust_invest_behav_any.q</t>
+  </si>
+  <si>
+    <t>l_cust_invest_behav_cfy.q</t>
+  </si>
+  <si>
+    <t>l_cust_invest_behav_dey.q</t>
+  </si>
+  <si>
+    <t>l_cust_invest_behav_hqy.q</t>
+  </si>
+  <si>
+    <t>l_cust_invest_behav_ste.q</t>
+  </si>
+  <si>
+    <t>l_cust_invest_behav_val.q</t>
+  </si>
+  <si>
+    <t>l_cust_logon_info.q</t>
+  </si>
+  <si>
+    <t>l_cust_prefer_prod_info.q</t>
+  </si>
+  <si>
+    <t>l_cust_rgst_info.q</t>
+  </si>
+  <si>
+    <t>l_cust_stea_inve_prod_invest.q</t>
+  </si>
+  <si>
+    <t>l_cust_value_inve_prod_invest.q</t>
+  </si>
+  <si>
+    <t>l_prod_curr_prod.q</t>
+  </si>
+  <si>
+    <t>l_prod_curr_prod_tx.q</t>
+  </si>
+  <si>
+    <t>l_prod_fix_time_prod.q</t>
+  </si>
+  <si>
+    <t>l_prod_fix_time_prod_tx.q</t>
+  </si>
+  <si>
+    <t>l_prod_impawn_fin_prod.q</t>
+  </si>
+  <si>
+    <t>l_prod_stea_inve_prod.q</t>
+  </si>
+  <si>
+    <t>l_prod_stea_inve_prod_tx.q</t>
+  </si>
+  <si>
+    <t>l_prod_value_inve_prod.q</t>
+  </si>
+  <si>
+    <t>l_prod_value_inve_prod_tx.q</t>
+  </si>
+  <si>
+    <t>l_session_info.q</t>
+  </si>
+  <si>
+    <t>客户基本信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户持有资产信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户持有产品信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户投资行为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户偏好产品信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户登录信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>理财产品信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户产品偏好模型评分表</t>
   </si>
 </sst>
 </file>
@@ -1343,7 +1623,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$-17804]yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1371,14 +1651,6 @@
       <color theme="1"/>
       <name val="Consolas"/>
       <family val="3"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -1446,15 +1718,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Consolas"/>
@@ -1468,26 +1731,15 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="18">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1502,55 +1754,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1591,163 +1801,10 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="27">
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dashed">
-        <color auto="1"/>
-      </left>
-      <right style="dashed">
-        <color auto="1"/>
-      </right>
-      <top style="dashed">
-        <color auto="1"/>
-      </top>
-      <bottom style="dashed">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="dashed">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="dashed">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dashed">
-        <color auto="1"/>
-      </left>
-      <right style="dashed">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="dashed">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dashed">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="dashed">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="dashed">
-        <color auto="1"/>
-      </right>
-      <top style="dashed">
-        <color auto="1"/>
-      </top>
-      <bottom style="dashed">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dashed">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="dashed">
-        <color auto="1"/>
-      </top>
-      <bottom style="dashed">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="dashed">
-        <color auto="1"/>
-      </right>
-      <top style="dashed">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dashed">
-        <color auto="1"/>
-      </left>
-      <right style="dashed">
-        <color auto="1"/>
-      </right>
-      <top style="dashed">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dashed">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="dashed">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -2077,102 +2134,81 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2182,181 +2218,125 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="17" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="10" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="17" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="10" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="17" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="17" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="10" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3211,17 +3191,17 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3235,7 +3215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3249,7 +3229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3263,7 +3243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>52</v>
       </c>
@@ -3277,7 +3257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -3291,7 +3271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -3305,7 +3285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -3319,7 +3299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -3333,7 +3313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -3347,7 +3327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -3361,7 +3341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -3375,7 +3355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -3389,7 +3369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -3403,7 +3383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -3417,7 +3397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -3431,7 +3411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -3445,7 +3425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -3459,7 +3439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -3473,7 +3453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -3487,7 +3467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -3501,7 +3481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>37</v>
       </c>
@@ -3515,7 +3495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>53</v>
       </c>
@@ -3529,7 +3509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>40</v>
       </c>
@@ -3543,7 +3523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>42</v>
       </c>
@@ -3557,7 +3537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>44</v>
       </c>
@@ -3571,7 +3551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>46</v>
       </c>
@@ -3585,7 +3565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>48</v>
       </c>
@@ -3599,7 +3579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>50</v>
       </c>
@@ -3650,957 +3630,807 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>276</v>
-      </c>
-      <c r="B1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>245</v>
-      </c>
-      <c r="B2" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>279</v>
-      </c>
-      <c r="B3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="4" width="21.625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9" style="70"/>
-    <col min="6" max="6" width="32.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="20.25" thickBot="1">
-      <c r="B1" s="81" t="s">
-        <v>94</v>
-      </c>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="72" t="s">
-        <v>283</v>
-      </c>
-      <c r="F1" s="72" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="53"/>
-    </row>
-    <row r="3" spans="1:6" ht="30">
-      <c r="A3" s="83"/>
-      <c r="B3" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D3" s="54" t="s">
-        <v>90</v>
-      </c>
-      <c r="E3" s="76" t="s">
-        <v>166</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A4" s="84"/>
-      <c r="B4" s="85" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="E4" s="77"/>
-      <c r="F4" s="9" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="9"/>
-      <c r="B5" s="87" t="s">
-        <v>88</v>
-      </c>
-      <c r="C5" s="88"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="71" t="s">
-        <v>282</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A6" s="9"/>
-      <c r="B6" s="78" t="s">
-        <v>89</v>
-      </c>
-      <c r="C6" s="79"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="71" t="s">
-        <v>281</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>285</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:D5"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N75"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9" style="7"/>
-    <col min="4" max="4" width="9" style="7" customWidth="1"/>
-    <col min="5" max="5" width="5" style="7" customWidth="1"/>
-    <col min="6" max="6" width="32.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.625" style="7" customWidth="1"/>
-    <col min="8" max="8" width="45" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5" style="19" customWidth="1"/>
-    <col min="10" max="10" width="9" style="7" customWidth="1"/>
-    <col min="11" max="11" width="9" style="7"/>
-    <col min="12" max="12" width="9" style="7" customWidth="1"/>
-    <col min="13" max="14" width="9" style="7"/>
-    <col min="15" max="15" width="8.625" style="7" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="7"/>
+    <col min="1" max="1" width="7.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9" style="2"/>
+    <col min="4" max="4" width="9" style="2" customWidth="1"/>
+    <col min="5" max="5" width="5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="32.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="45" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5" style="12" customWidth="1"/>
+    <col min="10" max="10" width="9" style="2" customWidth="1"/>
+    <col min="11" max="11" width="9" style="2"/>
+    <col min="12" max="12" width="9" style="2" customWidth="1"/>
+    <col min="13" max="14" width="9" style="2"/>
+    <col min="15" max="15" width="8.625" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" s="76" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B2" s="76" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="76"/>
+    </row>
+    <row r="4" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="77" t="s">
+        <v>124</v>
+      </c>
+      <c r="B4" s="77"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="77"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="77"/>
+    </row>
+    <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N5" s="13"/>
+    </row>
+    <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="70" t="s">
+        <v>128</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="F6" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="H6" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="K6" s="14"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="73" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="71"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="H7" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="J7" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="K7" s="18"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="74"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="71"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="H8" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="J8" s="22"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="74"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="71"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="19"/>
+      <c r="H9" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="J9" s="22"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="74"/>
+    </row>
+    <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="71"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="23"/>
+      <c r="H10" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="J10" s="22"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="74"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="71"/>
+      <c r="B11" s="67" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" s="67"/>
+      <c r="D11" s="68"/>
+      <c r="J11" s="69" t="s">
+        <v>118</v>
+      </c>
+      <c r="K11" s="67"/>
+      <c r="L11" s="67"/>
+      <c r="M11" s="74"/>
+    </row>
+    <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="71"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="25"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="74"/>
+    </row>
+    <row r="13" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="71"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="H13" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="J13" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="B1" s="99" t="s">
-        <v>144</v>
-      </c>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="B2" s="99" t="s">
-        <v>145</v>
-      </c>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="99"/>
-      <c r="K3" s="99"/>
-      <c r="L3" s="99"/>
-    </row>
-    <row r="4" spans="1:14" ht="18.75">
-      <c r="A4" s="100" t="s">
+      <c r="K13" s="18"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="74"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="71"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="74"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="71"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="J15" s="20"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="74"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="71"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="19"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="74"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="71"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="23"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="74"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="71"/>
+      <c r="B18" s="67" t="s">
+        <v>115</v>
+      </c>
+      <c r="C18" s="67"/>
+      <c r="D18" s="68"/>
+      <c r="J18" s="69" t="s">
+        <v>146</v>
+      </c>
+      <c r="K18" s="67"/>
+      <c r="L18" s="67"/>
+      <c r="M18" s="74"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="71"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="25"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="74"/>
+    </row>
+    <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="72"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="D20" s="31"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="L20" s="29"/>
+      <c r="M20" s="75"/>
+    </row>
+    <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="70" t="s">
+        <v>129</v>
+      </c>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="71"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="19" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="71"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="19" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="71"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="19"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="71"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="23"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="71"/>
+      <c r="B27" s="67" t="s">
+        <v>115</v>
+      </c>
+      <c r="C27" s="67"/>
+      <c r="D27" s="68"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="71"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="25"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="71"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="19" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="71"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="19" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="71"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="19" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="71"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="19"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="71"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="23"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="71"/>
+      <c r="B34" s="67" t="s">
+        <v>115</v>
+      </c>
+      <c r="C34" s="67"/>
+      <c r="D34" s="68"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" s="71"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="25"/>
+    </row>
+    <row r="36" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="72"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="D36" s="31"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" s="33" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B39" s="27"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B40" s="27"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="28"/>
+    </row>
+    <row r="41" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="77" t="s">
+        <v>133</v>
+      </c>
+      <c r="B41" s="77"/>
+      <c r="C41" s="77"/>
+      <c r="D41" s="77"/>
+      <c r="E41" s="77"/>
+      <c r="F41" s="77"/>
+      <c r="G41" s="77"/>
+      <c r="H41" s="77"/>
+      <c r="I41" s="77"/>
+      <c r="J41" s="77"/>
+      <c r="K41" s="77"/>
+      <c r="L41" s="77"/>
+      <c r="M41" s="77"/>
+    </row>
+    <row r="42" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F42" s="45" t="s">
+        <v>151</v>
+      </c>
+      <c r="H42" s="47" t="s">
+        <v>154</v>
+      </c>
+      <c r="N42" s="13"/>
+    </row>
+    <row r="43" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="70" t="s">
+        <v>128</v>
+      </c>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="F43" s="46" t="s">
+        <v>150</v>
+      </c>
+      <c r="H43" s="48" t="s">
+        <v>152</v>
+      </c>
+      <c r="J43" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="K43" s="14"/>
+      <c r="L43" s="17"/>
+      <c r="M43" s="73" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" s="71"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="H44" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="J44" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="K44" s="18"/>
+      <c r="L44" s="21"/>
+      <c r="M44" s="74"/>
+    </row>
+    <row r="45" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="71"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="H45" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="J45" s="22"/>
+      <c r="K45" s="18"/>
+      <c r="L45" s="21"/>
+      <c r="M45" s="74"/>
+    </row>
+    <row r="46" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="71"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="F46" s="38" t="s">
+        <v>153</v>
+      </c>
+      <c r="G46" s="42"/>
+      <c r="J46" s="22"/>
+      <c r="K46" s="18"/>
+      <c r="L46" s="21"/>
+      <c r="M46" s="74"/>
+    </row>
+    <row r="47" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="71"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="F47" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="G47" s="43"/>
+      <c r="J47" s="22"/>
+      <c r="K47" s="18"/>
+      <c r="L47" s="18"/>
+      <c r="M47" s="74"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" s="71"/>
+      <c r="B48" s="67" t="s">
+        <v>115</v>
+      </c>
+      <c r="C48" s="67"/>
+      <c r="D48" s="68"/>
+      <c r="J48" s="69" t="s">
+        <v>147</v>
+      </c>
+      <c r="K48" s="67"/>
+      <c r="L48" s="67"/>
+      <c r="M48" s="74"/>
+    </row>
+    <row r="49" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="71"/>
+      <c r="B49" s="24"/>
+      <c r="C49" s="24"/>
+      <c r="D49" s="25"/>
+      <c r="J49" s="26"/>
+      <c r="K49" s="24"/>
+      <c r="L49" s="24"/>
+      <c r="M49" s="74"/>
+    </row>
+    <row r="50" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="71"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="H50" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="J50" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="K50" s="18"/>
+      <c r="L50" s="21"/>
+      <c r="M50" s="74"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" s="71"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="E51" s="27"/>
+      <c r="F51" s="27"/>
+      <c r="G51" s="27"/>
+      <c r="H51" s="27"/>
+      <c r="I51" s="28"/>
+      <c r="J51" s="20"/>
+      <c r="K51" s="18"/>
+      <c r="L51" s="21"/>
+      <c r="M51" s="74"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" s="71"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="J52" s="20"/>
+      <c r="K52" s="18"/>
+      <c r="L52" s="21"/>
+      <c r="M52" s="74"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" s="71"/>
+      <c r="B53" s="18"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="J53" s="22"/>
+      <c r="K53" s="18"/>
+      <c r="L53" s="21"/>
+      <c r="M53" s="74"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" s="71"/>
+      <c r="B54" s="18"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="B4" s="100"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="100"/>
-      <c r="K4" s="100"/>
-      <c r="L4" s="100"/>
-      <c r="M4" s="100"/>
-    </row>
-    <row r="5" spans="1:14" ht="15.75" thickBot="1">
-      <c r="N5" s="20"/>
-    </row>
-    <row r="6" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A6" s="93" t="s">
-        <v>141</v>
-      </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="F6" s="47" t="s">
-        <v>157</v>
-      </c>
-      <c r="H6" s="48" t="s">
-        <v>158</v>
-      </c>
-      <c r="J6" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="K6" s="21"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="96" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="94"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="26" t="s">
+      <c r="J54" s="22"/>
+      <c r="K54" s="18"/>
+      <c r="L54" s="18"/>
+      <c r="M54" s="74"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55" s="71"/>
+      <c r="B55" s="67" t="s">
+        <v>115</v>
+      </c>
+      <c r="C55" s="67"/>
+      <c r="D55" s="68"/>
+      <c r="J55" s="69" t="s">
+        <v>146</v>
+      </c>
+      <c r="K55" s="67"/>
+      <c r="L55" s="67"/>
+      <c r="M55" s="74"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56" s="71"/>
+      <c r="B56" s="24"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="25"/>
+      <c r="J56" s="26"/>
+      <c r="K56" s="24"/>
+      <c r="L56" s="24"/>
+      <c r="M56" s="74"/>
+    </row>
+    <row r="57" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="72"/>
+      <c r="B57" s="29"/>
+      <c r="C57" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="D57" s="31"/>
+      <c r="J57" s="32"/>
+      <c r="K57" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="L57" s="29"/>
+      <c r="M57" s="75"/>
+    </row>
+    <row r="58" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59" s="70" t="s">
         <v>129</v>
       </c>
-      <c r="H7" s="42" t="s">
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60" s="71"/>
+      <c r="B60" s="18"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="J7" s="27" t="s">
-        <v>133</v>
-      </c>
-      <c r="K7" s="25"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="97"/>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="94"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="26" t="s">
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61" s="71"/>
+      <c r="B61" s="18"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="19" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62" s="71"/>
+      <c r="B62" s="18"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="H8" s="43" t="s">
-        <v>152</v>
-      </c>
-      <c r="J8" s="29"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="97"/>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="94"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="26"/>
-      <c r="H9" s="43" t="s">
-        <v>151</v>
-      </c>
-      <c r="J9" s="29"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="97"/>
-    </row>
-    <row r="10" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A10" s="94"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="30"/>
-      <c r="H10" s="44" t="s">
-        <v>153</v>
-      </c>
-      <c r="J10" s="29"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="97"/>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="94"/>
-      <c r="B11" s="90" t="s">
-        <v>128</v>
-      </c>
-      <c r="C11" s="90"/>
-      <c r="D11" s="91"/>
-      <c r="J11" s="92" t="s">
-        <v>131</v>
-      </c>
-      <c r="K11" s="90"/>
-      <c r="L11" s="90"/>
-      <c r="M11" s="97"/>
-    </row>
-    <row r="12" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A12" s="94"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="32"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="97"/>
-    </row>
-    <row r="13" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A13" s="94"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="H13" s="48" t="s">
-        <v>158</v>
-      </c>
-      <c r="J13" s="27" t="s">
-        <v>156</v>
-      </c>
-      <c r="K13" s="25"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="97"/>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="94"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="97"/>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="94"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="26" t="s">
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63" s="71"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="19" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64" s="71"/>
+      <c r="B64" s="67" t="s">
+        <v>115</v>
+      </c>
+      <c r="C64" s="67"/>
+      <c r="D64" s="68"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="71"/>
+      <c r="B65" s="24"/>
+      <c r="C65" s="24"/>
+      <c r="D65" s="25"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="71"/>
+      <c r="B66" s="18"/>
+      <c r="C66" s="18"/>
+      <c r="D66" s="19" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="71"/>
+      <c r="B67" s="18"/>
+      <c r="C67" s="18"/>
+      <c r="D67" s="19" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="71"/>
+      <c r="B68" s="18"/>
+      <c r="C68" s="18"/>
+      <c r="D68" s="19" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="71"/>
+      <c r="B69" s="18"/>
+      <c r="C69" s="18"/>
+      <c r="D69" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="J15" s="27"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="97"/>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16" s="94"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="26"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="97"/>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="94"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="30"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="97"/>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="94"/>
-      <c r="B18" s="90" t="s">
-        <v>128</v>
-      </c>
-      <c r="C18" s="90"/>
-      <c r="D18" s="91"/>
-      <c r="J18" s="92" t="s">
-        <v>159</v>
-      </c>
-      <c r="K18" s="90"/>
-      <c r="L18" s="90"/>
-      <c r="M18" s="97"/>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="94"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="32"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="97"/>
-    </row>
-    <row r="20" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A20" s="95"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="37" t="s">
-        <v>139</v>
-      </c>
-      <c r="D20" s="38"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="37" t="s">
-        <v>139</v>
-      </c>
-      <c r="L20" s="36"/>
-      <c r="M20" s="98"/>
-    </row>
-    <row r="21" spans="1:13" ht="15.75" thickBot="1"/>
-    <row r="22" spans="1:13">
-      <c r="A22" s="93" t="s">
-        <v>142</v>
-      </c>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="22" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="94"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="26" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="94"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="26" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="A25" s="94"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="26"/>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="A26" s="94"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="30"/>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="A27" s="94"/>
-      <c r="B27" s="90" t="s">
-        <v>128</v>
-      </c>
-      <c r="C27" s="90"/>
-      <c r="D27" s="91"/>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="A28" s="94"/>
-      <c r="B28" s="31"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="32"/>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="A29" s="94"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="26" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="A30" s="94"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="26" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="A31" s="94"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="26" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="A32" s="94"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="26"/>
-    </row>
-    <row r="33" spans="1:14">
-      <c r="A33" s="94"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="30"/>
-    </row>
-    <row r="34" spans="1:14">
-      <c r="A34" s="94"/>
-      <c r="B34" s="90" t="s">
-        <v>128</v>
-      </c>
-      <c r="C34" s="90"/>
-      <c r="D34" s="91"/>
-    </row>
-    <row r="35" spans="1:14">
-      <c r="A35" s="94"/>
-      <c r="B35" s="31"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="32"/>
-    </row>
-    <row r="36" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A36" s="95"/>
-      <c r="B36" s="36"/>
-      <c r="C36" s="37" t="s">
-        <v>139</v>
-      </c>
-      <c r="D36" s="38"/>
-    </row>
-    <row r="38" spans="1:14">
-      <c r="A38" s="40" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14">
-      <c r="B39" s="34"/>
-      <c r="C39" s="34"/>
-      <c r="D39" s="34"/>
-    </row>
-    <row r="40" spans="1:14">
-      <c r="B40" s="34"/>
-      <c r="C40" s="34"/>
-      <c r="D40" s="34"/>
-      <c r="E40" s="34"/>
-      <c r="F40" s="34"/>
-      <c r="G40" s="34"/>
-      <c r="H40" s="34"/>
-      <c r="I40" s="35"/>
-    </row>
-    <row r="41" spans="1:14" ht="19.5" thickBot="1">
-      <c r="A41" s="100" t="s">
-        <v>146</v>
-      </c>
-      <c r="B41" s="100"/>
-      <c r="C41" s="100"/>
-      <c r="D41" s="100"/>
-      <c r="E41" s="100"/>
-      <c r="F41" s="100"/>
-      <c r="G41" s="100"/>
-      <c r="H41" s="100"/>
-      <c r="I41" s="100"/>
-      <c r="J41" s="100"/>
-      <c r="K41" s="100"/>
-      <c r="L41" s="100"/>
-      <c r="M41" s="100"/>
-    </row>
-    <row r="42" spans="1:14" ht="15.75" thickBot="1">
-      <c r="F42" s="55" t="s">
-        <v>173</v>
-      </c>
-      <c r="H42" s="57" t="s">
-        <v>176</v>
-      </c>
-      <c r="N42" s="20"/>
-    </row>
-    <row r="43" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A43" s="93" t="s">
-        <v>141</v>
-      </c>
-      <c r="B43" s="21"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="F43" s="56" t="s">
-        <v>172</v>
-      </c>
-      <c r="H43" s="58" t="s">
-        <v>174</v>
-      </c>
-      <c r="J43" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="K43" s="21"/>
-      <c r="L43" s="24"/>
-      <c r="M43" s="96" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14">
-      <c r="A44" s="94"/>
-      <c r="B44" s="25"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="H44" s="42" t="s">
-        <v>134</v>
-      </c>
-      <c r="J44" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="K44" s="25"/>
-      <c r="L44" s="28"/>
-      <c r="M44" s="97"/>
-    </row>
-    <row r="45" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A45" s="94"/>
-      <c r="B45" s="25"/>
-      <c r="C45" s="25"/>
-      <c r="D45" s="26" t="s">
-        <v>148</v>
-      </c>
-      <c r="H45" s="44" t="s">
-        <v>135</v>
-      </c>
-      <c r="J45" s="29"/>
-      <c r="K45" s="25"/>
-      <c r="L45" s="28"/>
-      <c r="M45" s="97"/>
-    </row>
-    <row r="46" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A46" s="94"/>
-      <c r="B46" s="25"/>
-      <c r="C46" s="25"/>
-      <c r="D46" s="26" t="s">
-        <v>154</v>
-      </c>
-      <c r="F46" s="45" t="s">
-        <v>175</v>
-      </c>
-      <c r="G46" s="49"/>
-      <c r="J46" s="29"/>
-      <c r="K46" s="25"/>
-      <c r="L46" s="28"/>
-      <c r="M46" s="97"/>
-    </row>
-    <row r="47" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A47" s="94"/>
-      <c r="B47" s="25"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="26" t="s">
-        <v>155</v>
-      </c>
-      <c r="F47" s="46" t="s">
-        <v>151</v>
-      </c>
-      <c r="G47" s="50"/>
-      <c r="J47" s="29"/>
-      <c r="K47" s="25"/>
-      <c r="L47" s="25"/>
-      <c r="M47" s="97"/>
-    </row>
-    <row r="48" spans="1:14">
-      <c r="A48" s="94"/>
-      <c r="B48" s="90" t="s">
-        <v>128</v>
-      </c>
-      <c r="C48" s="90"/>
-      <c r="D48" s="91"/>
-      <c r="J48" s="92" t="s">
-        <v>169</v>
-      </c>
-      <c r="K48" s="90"/>
-      <c r="L48" s="90"/>
-      <c r="M48" s="97"/>
-    </row>
-    <row r="49" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A49" s="94"/>
-      <c r="B49" s="31"/>
-      <c r="C49" s="31"/>
-      <c r="D49" s="32"/>
-      <c r="J49" s="33"/>
-      <c r="K49" s="31"/>
-      <c r="L49" s="31"/>
-      <c r="M49" s="97"/>
-    </row>
-    <row r="50" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A50" s="94"/>
-      <c r="B50" s="25"/>
-      <c r="C50" s="25"/>
-      <c r="D50" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="H50" s="48" t="s">
-        <v>171</v>
-      </c>
-      <c r="J50" s="27" t="s">
-        <v>156</v>
-      </c>
-      <c r="K50" s="25"/>
-      <c r="L50" s="28"/>
-      <c r="M50" s="97"/>
-    </row>
-    <row r="51" spans="1:13">
-      <c r="A51" s="94"/>
-      <c r="B51" s="25"/>
-      <c r="C51" s="25"/>
-      <c r="D51" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="E51" s="34"/>
-      <c r="F51" s="34"/>
-      <c r="G51" s="34"/>
-      <c r="H51" s="34"/>
-      <c r="I51" s="35"/>
-      <c r="J51" s="27"/>
-      <c r="K51" s="25"/>
-      <c r="L51" s="28"/>
-      <c r="M51" s="97"/>
-    </row>
-    <row r="52" spans="1:13">
-      <c r="A52" s="94"/>
-      <c r="B52" s="25"/>
-      <c r="C52" s="25"/>
-      <c r="D52" s="26" t="s">
-        <v>148</v>
-      </c>
-      <c r="J52" s="27"/>
-      <c r="K52" s="25"/>
-      <c r="L52" s="28"/>
-      <c r="M52" s="97"/>
-    </row>
-    <row r="53" spans="1:13">
-      <c r="A53" s="94"/>
-      <c r="B53" s="25"/>
-      <c r="C53" s="25"/>
-      <c r="D53" s="26" t="s">
-        <v>149</v>
-      </c>
-      <c r="J53" s="29"/>
-      <c r="K53" s="25"/>
-      <c r="L53" s="28"/>
-      <c r="M53" s="97"/>
-    </row>
-    <row r="54" spans="1:13">
-      <c r="A54" s="94"/>
-      <c r="B54" s="25"/>
-      <c r="C54" s="25"/>
-      <c r="D54" s="26" t="s">
-        <v>150</v>
-      </c>
-      <c r="J54" s="29"/>
-      <c r="K54" s="25"/>
-      <c r="L54" s="25"/>
-      <c r="M54" s="97"/>
-    </row>
-    <row r="55" spans="1:13">
-      <c r="A55" s="94"/>
-      <c r="B55" s="90" t="s">
-        <v>128</v>
-      </c>
-      <c r="C55" s="90"/>
-      <c r="D55" s="91"/>
-      <c r="J55" s="92" t="s">
-        <v>159</v>
-      </c>
-      <c r="K55" s="90"/>
-      <c r="L55" s="90"/>
-      <c r="M55" s="97"/>
-    </row>
-    <row r="56" spans="1:13">
-      <c r="A56" s="94"/>
-      <c r="B56" s="31"/>
-      <c r="C56" s="31"/>
-      <c r="D56" s="32"/>
-      <c r="J56" s="33"/>
-      <c r="K56" s="31"/>
-      <c r="L56" s="31"/>
-      <c r="M56" s="97"/>
-    </row>
-    <row r="57" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A57" s="95"/>
-      <c r="B57" s="36"/>
-      <c r="C57" s="37" t="s">
-        <v>139</v>
-      </c>
-      <c r="D57" s="38"/>
-      <c r="J57" s="39"/>
-      <c r="K57" s="37" t="s">
-        <v>139</v>
-      </c>
-      <c r="L57" s="36"/>
-      <c r="M57" s="98"/>
-    </row>
-    <row r="58" spans="1:13" ht="15.75" thickBot="1"/>
-    <row r="59" spans="1:13">
-      <c r="A59" s="93" t="s">
-        <v>142</v>
-      </c>
-      <c r="B59" s="21"/>
-      <c r="C59" s="21"/>
-      <c r="D59" s="22" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
-      <c r="A60" s="94"/>
-      <c r="B60" s="25"/>
-      <c r="C60" s="25"/>
-      <c r="D60" s="26" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13">
-      <c r="A61" s="94"/>
-      <c r="B61" s="25"/>
-      <c r="C61" s="25"/>
-      <c r="D61" s="26" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13">
-      <c r="A62" s="94"/>
-      <c r="B62" s="25"/>
-      <c r="C62" s="25"/>
-      <c r="D62" s="26" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13">
-      <c r="A63" s="94"/>
-      <c r="B63" s="25"/>
-      <c r="C63" s="25"/>
-      <c r="D63" s="26" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13">
-      <c r="A64" s="94"/>
-      <c r="B64" s="90" t="s">
-        <v>128</v>
-      </c>
-      <c r="C64" s="90"/>
-      <c r="D64" s="91"/>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="94"/>
-      <c r="B65" s="31"/>
-      <c r="C65" s="31"/>
-      <c r="D65" s="32"/>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="94"/>
-      <c r="B66" s="25"/>
-      <c r="C66" s="25"/>
-      <c r="D66" s="26" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="94"/>
-      <c r="B67" s="25"/>
-      <c r="C67" s="25"/>
-      <c r="D67" s="26" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="94"/>
-      <c r="B68" s="25"/>
-      <c r="C68" s="25"/>
-      <c r="D68" s="26" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="94"/>
-      <c r="B69" s="25"/>
-      <c r="C69" s="25"/>
-      <c r="D69" s="26" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="94"/>
-      <c r="B70" s="25"/>
-      <c r="C70" s="25"/>
-      <c r="D70" s="26" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71" s="94"/>
-      <c r="B71" s="90" t="s">
-        <v>128</v>
-      </c>
-      <c r="C71" s="90"/>
-      <c r="D71" s="91"/>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72" s="94"/>
-      <c r="B72" s="31"/>
-      <c r="C72" s="31"/>
-      <c r="D72" s="32"/>
-    </row>
-    <row r="73" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A73" s="95"/>
-      <c r="B73" s="36"/>
-      <c r="C73" s="37" t="s">
-        <v>139</v>
-      </c>
-      <c r="D73" s="38"/>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="A75" s="40" t="s">
-        <v>139</v>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="71"/>
+      <c r="B70" s="18"/>
+      <c r="C70" s="18"/>
+      <c r="D70" s="19" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="71"/>
+      <c r="B71" s="67" t="s">
+        <v>115</v>
+      </c>
+      <c r="C71" s="67"/>
+      <c r="D71" s="68"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="71"/>
+      <c r="B72" s="24"/>
+      <c r="C72" s="24"/>
+      <c r="D72" s="25"/>
+    </row>
+    <row r="73" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="72"/>
+      <c r="B73" s="29"/>
+      <c r="C73" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="D73" s="31"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="33" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -4636,262 +4466,267 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="11.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="47.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="18.75">
-      <c r="B2" s="101" t="s">
+    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B2" s="78" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+    </row>
+    <row r="3" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B4" s="5">
+        <v>41069</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B5" s="5">
+        <v>41186</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B6" s="5">
+        <v>41244</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-    </row>
-    <row r="3" spans="1:4" s="16" customFormat="1">
-      <c r="B3" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="B4" s="11">
-        <v>41069</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="B5" s="11">
-        <v>41186</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="B6" s="11">
-        <v>41244</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B7" s="5">
+        <v>41300</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B8" s="5">
+        <v>41456</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B9" s="5">
+        <v>41518</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B10" s="5">
+        <v>41665</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B11" s="5">
+        <v>41821</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B12" s="5">
+        <v>41883</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B13" s="5">
+        <v>42030</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="D13" s="7"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B14" s="5">
+        <v>42219</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B15" s="5">
+        <v>42221</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D15" s="7"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" s="4"/>
+      <c r="B16" s="5">
+        <v>42248</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16" s="7"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" s="4"/>
+      <c r="B17" s="5">
+        <v>42278</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D17" s="7"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B18" s="5">
+        <v>42395</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D18" s="7"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B19" s="5">
+        <v>42491</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D19" s="7"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B20" s="5">
+        <v>42552</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" s="7"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B21" s="5">
+        <v>42580</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="B7" s="11">
-        <v>41300</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="B8" s="11">
-        <v>41456</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="B9" s="11">
-        <v>41518</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="D9" s="13"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="B10" s="11">
-        <v>41665</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="D10" s="13"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="B11" s="11">
-        <v>41821</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="B12" s="11">
-        <v>41883</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="D12" s="13"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="B13" s="11">
-        <v>42030</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>274</v>
-      </c>
-      <c r="D13" s="13"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="B14" s="11">
-        <v>42219</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="B15" s="11">
-        <v>42221</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="D15" s="13"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11">
-        <v>42248</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="D16" s="13"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="10"/>
-      <c r="B17" s="11">
-        <v>42278</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="D17" s="13"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="B18" s="11">
-        <v>42395</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="D18" s="13"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="B19" s="11">
-        <v>42491</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="D19" s="13"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="B20" s="11">
-        <v>42552</v>
-      </c>
-      <c r="C20" s="13" t="s">
+      <c r="D21" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="D20" s="13"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="B21" s="11">
-        <v>42580</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="B22" s="11">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B22" s="5">
         <v>42731</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D22" s="7"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B23" s="5">
+        <v>42762</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D23" s="7"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B24" s="5">
+        <v>42769</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="D24" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="D22" s="13"/>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="B23" s="11">
-        <v>42762</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="D23" s="13"/>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="B24" s="11">
-        <v>42771</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="B25" s="8"/>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="B26" s="8"/>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="B27" s="8"/>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="B28" s="8"/>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="B29" s="8"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B25" s="5">
+        <v>42774</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B26" s="3"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B27" s="3"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B28" s="3"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B29" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4903,132 +4738,129 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46" style="60" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.375" style="60" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.875" style="60" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="9.75" style="60" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="60"/>
+    <col min="1" max="1" width="51.875" style="50" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.625" style="50" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.375" style="50" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="50"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="74" customFormat="1">
-      <c r="A1" s="73" t="s">
-        <v>126</v>
-      </c>
-      <c r="B1" s="74" t="s">
-        <v>127</v>
-      </c>
-      <c r="C1" s="73" t="s">
-        <v>288</v>
-      </c>
-      <c r="D1" s="73" t="s">
-        <v>301</v>
-      </c>
-      <c r="E1" s="73" t="s">
-        <v>302</v>
-      </c>
-      <c r="F1" s="73" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="60" t="s">
-        <v>91</v>
-      </c>
-      <c r="B2" s="75" t="s">
-        <v>289</v>
-      </c>
-      <c r="C2" s="75" t="s">
-        <v>290</v>
-      </c>
-      <c r="D2" s="60">
-        <v>1715</v>
-      </c>
-      <c r="E2" s="60">
-        <v>1763</v>
-      </c>
-      <c r="F2" s="60">
-        <f>E2-D2</f>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="60" t="s">
-        <v>93</v>
-      </c>
-      <c r="B3" s="60" t="s">
-        <v>291</v>
-      </c>
-      <c r="C3" s="75" t="s">
-        <v>292</v>
-      </c>
-      <c r="D3" s="60">
-        <v>1895</v>
-      </c>
-      <c r="E3" s="60">
-        <v>1976</v>
-      </c>
-      <c r="F3" s="60">
-        <f t="shared" ref="F3:F5" si="0">E3-D3</f>
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="60" t="s">
-        <v>92</v>
-      </c>
-      <c r="B4" s="75" t="s">
-        <v>293</v>
-      </c>
-      <c r="C4" s="75" t="s">
-        <v>294</v>
-      </c>
-      <c r="D4" s="60">
-        <v>1942</v>
-      </c>
-      <c r="E4" s="60">
-        <v>2016</v>
-      </c>
-      <c r="F4" s="60">
-        <f t="shared" si="0"/>
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="B5" s="60" t="s">
-        <v>297</v>
-      </c>
-      <c r="C5" s="111" t="s">
-        <v>298</v>
-      </c>
-      <c r="D5" s="60" t="s">
-        <v>295</v>
-      </c>
-      <c r="E5" s="60" t="s">
-        <v>296</v>
-      </c>
-      <c r="F5" s="60">
-        <f t="shared" si="0"/>
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="B6" s="60" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="B7" s="60" t="s">
-        <v>300</v>
+    <row r="1" spans="1:3" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="59" t="s">
+        <v>251</v>
+      </c>
+      <c r="B1" s="60" t="s">
+        <v>253</v>
+      </c>
+      <c r="C1" s="60" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="50" t="s">
+        <v>264</v>
+      </c>
+      <c r="B2" s="62" t="s">
+        <v>258</v>
+      </c>
+      <c r="C2" s="61" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="50" t="s">
+        <v>265</v>
+      </c>
+      <c r="B3" s="50" t="s">
+        <v>259</v>
+      </c>
+      <c r="C3" s="50" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="50" t="s">
+        <v>252</v>
+      </c>
+      <c r="B4" s="50" t="s">
+        <v>257</v>
+      </c>
+      <c r="C4" s="61" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="50" t="s">
+        <v>266</v>
+      </c>
+      <c r="B5" s="50" t="s">
+        <v>256</v>
+      </c>
+      <c r="C5" s="50" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="50" t="s">
+        <v>267</v>
+      </c>
+      <c r="B6" s="50" t="s">
+        <v>255</v>
+      </c>
+      <c r="C6" s="50" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="50" t="s">
+        <v>254</v>
+      </c>
+      <c r="C7" s="50" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="50" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="50" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="50" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="50" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="50" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="50" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="50" t="s">
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -5038,90 +4870,26 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="9" style="51"/>
-    <col min="2" max="2" width="14.25" style="51" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.375" style="51" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="51"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="52" t="s">
-        <v>115</v>
-      </c>
-      <c r="B1" s="52" t="s">
-        <v>167</v>
-      </c>
-      <c r="C1" s="52" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="51">
-        <v>201508</v>
-      </c>
-      <c r="B2" s="51" t="s">
-        <v>160</v>
-      </c>
-      <c r="C2" s="51" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="51">
-        <v>201607</v>
-      </c>
-      <c r="B3" s="51" t="s">
-        <v>161</v>
-      </c>
-      <c r="C3" s="51" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="B4" s="51" t="s">
-        <v>165</v>
-      </c>
-      <c r="C4" s="51" t="s">
-        <v>163</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="3" width="2.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="B1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="C1">
         <v>0</v>
@@ -5131,12 +4899,12 @@
         <v>sed -i 's/a/o/g' input.q</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="B2" t="s">
-        <v>207</v>
+        <v>185</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -5146,12 +4914,12 @@
         <v>sed -i 's/b/D/g' input.q</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="B3" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -5161,11 +4929,11 @@
         <v>sed -i 's/c/S/g' input.q</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>180</v>
-      </c>
-      <c r="B4" s="51">
+        <v>158</v>
+      </c>
+      <c r="B4" s="44">
         <v>7</v>
       </c>
       <c r="C4">
@@ -5176,12 +4944,12 @@
         <v>sed -i 's/d/7/g' input.q</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="B5" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -5191,12 +4959,12 @@
         <v>sed -i 's/e/j/g' input.q</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="B6" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -5206,12 +4974,12 @@
         <v>sed -i 's/f/y/g' input.q</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="B7" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -5221,11 +4989,11 @@
         <v>sed -i 's/g/N/g' input.q</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>184</v>
-      </c>
-      <c r="B8" s="51">
+        <v>162</v>
+      </c>
+      <c r="B8" s="44">
         <v>2</v>
       </c>
       <c r="C8">
@@ -5236,12 +5004,12 @@
         <v>sed -i 's/h/2/g' input.q</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="B9" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -5251,12 +5019,12 @@
         <v>sed -i 's/i/b/g' input.q</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="B10" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -5266,12 +5034,12 @@
         <v>sed -i 's/j/g/g' input.q</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="B11" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -5281,12 +5049,12 @@
         <v>sed -i 's/k/q/g' input.q</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="B12" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -5296,12 +5064,12 @@
         <v>sed -i 's/l/v/g' input.q</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="B13" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -5311,12 +5079,12 @@
         <v>sed -i 's/m/F/g' input.q</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
+        <v>169</v>
+      </c>
+      <c r="B14" t="s">
         <v>191</v>
-      </c>
-      <c r="B14" t="s">
-        <v>213</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -5326,12 +5094,12 @@
         <v>sed -i 's/n/K/g' input.q</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="B15" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="C15">
         <v>2</v>
@@ -5341,12 +5109,12 @@
         <v>sed -i 's/o/U/g' input.q</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="B16" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="C16">
         <v>2</v>
@@ -5356,12 +5124,12 @@
         <v>sed -i 's/p/Z/g' input.q</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="B17" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="C17">
         <v>3</v>
@@ -5371,12 +5139,12 @@
         <v>sed -i 's/q/a/g' input.q</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="B18" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="C18">
         <v>3</v>
@@ -5386,12 +5154,12 @@
         <v>sed -i 's/r/i/g' input.q</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="B19" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="C19">
         <v>3</v>
@@ -5401,12 +5169,12 @@
         <v>sed -i 's/s/m/g' input.q</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="B20" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="C20">
         <v>3</v>
@@ -5416,12 +5184,12 @@
         <v>sed -i 's/t/p/g' input.q</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="B21" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="C21">
         <v>3</v>
@@ -5431,12 +5199,12 @@
         <v>sed -i 's/u/x/g' input.q</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
       <c r="B22" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="C22">
         <v>3</v>
@@ -5446,12 +5214,12 @@
         <v>sed -i 's/v/B/g' input.q</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="B23" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="C23">
         <v>3</v>
@@ -5461,12 +5229,12 @@
         <v>sed -i 's/w/E/g' input.q</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="B24" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
       <c r="C24">
         <v>3</v>
@@ -5476,12 +5244,12 @@
         <v>sed -i 's/x/M/g' input.q</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="B25" t="s">
-        <v>219</v>
+        <v>197</v>
       </c>
       <c r="C25">
         <v>3</v>
@@ -5491,12 +5259,12 @@
         <v>sed -i 's/y/Q/g' input.q</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="B26" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="C26">
         <v>3</v>
@@ -5506,11 +5274,11 @@
         <v>sed -i 's/z/T/g' input.q</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>204</v>
-      </c>
-      <c r="B27" s="51">
+        <v>182</v>
+      </c>
+      <c r="B27" s="44">
         <v>1</v>
       </c>
       <c r="C27">
@@ -5521,11 +5289,11 @@
         <v>sed -i 's/A/1/g' input.q</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>205</v>
-      </c>
-      <c r="B28" s="51">
+        <v>183</v>
+      </c>
+      <c r="B28" s="44">
         <v>5</v>
       </c>
       <c r="C28">
@@ -5536,12 +5304,12 @@
         <v>sed -i 's/B/5/g' input.q</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>206</v>
+        <v>184</v>
       </c>
       <c r="B29" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="C29">
         <v>4</v>
@@ -5551,12 +5319,12 @@
         <v>sed -i 's/C/h/g' input.q</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>207</v>
+        <v>185</v>
       </c>
       <c r="B30" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="C30">
         <v>4</v>
@@ -5566,12 +5334,12 @@
         <v>sed -i 's/D/w/g' input.q</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="B31" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
       <c r="C31">
         <v>4</v>
@@ -5581,11 +5349,11 @@
         <v>sed -i 's/E/L/g' input.q</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>209</v>
-      </c>
-      <c r="B32" s="51">
+        <v>187</v>
+      </c>
+      <c r="B32" s="44">
         <v>0</v>
       </c>
       <c r="C32">
@@ -5596,11 +5364,11 @@
         <v>sed -i 's/F/0/g' input.q</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>210</v>
-      </c>
-      <c r="B33" s="51">
+        <v>188</v>
+      </c>
+      <c r="B33" s="44">
         <v>8</v>
       </c>
       <c r="C33">
@@ -5611,12 +5379,12 @@
         <v>sed -i 's/G/8/g' input.q</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="B34" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="C34">
         <v>5</v>
@@ -5626,12 +5394,12 @@
         <v>sed -i 's/H/d/g' input.q</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="B35" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="C35">
         <v>5</v>
@@ -5641,12 +5409,12 @@
         <v>sed -i 's/I/l/g' input.q</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="B36" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="C36">
         <v>5</v>
@@ -5656,12 +5424,12 @@
         <v>sed -i 's/J/s/g' input.q</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c r="B37" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="C37">
         <v>5</v>
@@ -5671,12 +5439,12 @@
         <v>sed -i 's/K/A/g' input.q</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
       <c r="B38" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="C38">
         <v>5</v>
@@ -5686,12 +5454,12 @@
         <v>sed -i 's/L/H/g' input.q</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
       <c r="B39" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="C39">
         <v>5</v>
@@ -5701,12 +5469,12 @@
         <v>sed -i 's/M/P/g' input.q</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="B40" t="s">
-        <v>225</v>
+        <v>203</v>
       </c>
       <c r="C40">
         <v>5</v>
@@ -5716,11 +5484,11 @@
         <v>sed -i 's/N/W/g' input.q</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>217</v>
-      </c>
-      <c r="B41" s="51">
+        <v>195</v>
+      </c>
+      <c r="B41" s="44">
         <v>4</v>
       </c>
       <c r="C41">
@@ -5731,12 +5499,12 @@
         <v>sed -i 's/O/4/g' input.q</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="B42" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="C42">
         <v>6</v>
@@ -5746,12 +5514,12 @@
         <v>sed -i 's/P/c/g' input.q</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>219</v>
+        <v>197</v>
       </c>
       <c r="B43" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="C43">
         <v>6</v>
@@ -5761,12 +5529,12 @@
         <v>sed -i 's/Q/k/g' input.q</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="B44" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="C44">
         <v>6</v>
@@ -5776,12 +5544,12 @@
         <v>sed -i 's/R/r/g' input.q</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="B45" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="C45">
         <v>6</v>
@@ -5791,12 +5559,12 @@
         <v>sed -i 's/S/z/g' input.q</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="B46" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="C46">
         <v>6</v>
@@ -5806,12 +5574,12 @@
         <v>sed -i 's/T/G/g' input.q</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="B47" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="C47">
         <v>6</v>
@@ -5821,12 +5589,12 @@
         <v>sed -i 's/U/O/g' input.q</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
       <c r="B48" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
       <c r="C48">
         <v>6</v>
@@ -5836,11 +5604,11 @@
         <v>sed -i 's/V/V/g' input.q</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>225</v>
-      </c>
-      <c r="B49" s="51">
+        <v>203</v>
+      </c>
+      <c r="B49" s="44">
         <v>3</v>
       </c>
       <c r="C49">
@@ -5851,11 +5619,11 @@
         <v>sed -i 's/W/3/g' input.q</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>226</v>
-      </c>
-      <c r="B50" s="51">
+        <v>204</v>
+      </c>
+      <c r="B50" s="44">
         <v>9</v>
       </c>
       <c r="C50">
@@ -5866,12 +5634,12 @@
         <v>sed -i 's/X/9/g' input.q</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="B51" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="C51">
         <v>7</v>
@@ -5881,12 +5649,12 @@
         <v>sed -i 's/Y/n/g' input.q</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="B52" t="s">
-        <v>206</v>
+        <v>184</v>
       </c>
       <c r="C52">
         <v>7</v>
@@ -5896,12 +5664,12 @@
         <v>sed -i 's/Z/C/g' input.q</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="51">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A53" s="44">
         <v>0</v>
       </c>
       <c r="B53" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="C53">
         <v>7</v>
@@ -5911,11 +5679,11 @@
         <v>sed -i 's/0/R/g' input.q</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="51">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A54" s="44">
         <v>1</v>
       </c>
-      <c r="B54" s="51">
+      <c r="B54" s="44">
         <v>6</v>
       </c>
       <c r="C54">
@@ -5926,12 +5694,12 @@
         <v>sed -i 's/1/6/g' input.q</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="51">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A55" s="44">
         <v>2</v>
       </c>
       <c r="B55" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="C55">
         <v>8</v>
@@ -5941,12 +5709,12 @@
         <v>sed -i 's/2/e/g' input.q</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="51">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A56" s="44">
         <v>3</v>
       </c>
       <c r="B56" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="C56">
         <v>8</v>
@@ -5956,12 +5724,12 @@
         <v>sed -i 's/3/t/g' input.q</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="51">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A57" s="44">
         <v>4</v>
       </c>
       <c r="B57" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="C57">
         <v>8</v>
@@ -5971,12 +5739,12 @@
         <v>sed -i 's/4/I/g' input.q</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="51">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A58" s="44">
         <v>5</v>
       </c>
       <c r="B58" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
       <c r="C58">
         <v>8</v>
@@ -5986,12 +5754,12 @@
         <v>sed -i 's/5/X/g' input.q</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="51">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A59" s="44">
         <v>6</v>
       </c>
       <c r="B59" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="C59">
         <v>9</v>
@@ -6001,12 +5769,12 @@
         <v>sed -i 's/6/f/g' input.q</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="51">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A60" s="44">
         <v>7</v>
       </c>
       <c r="B60" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="C60">
         <v>9</v>
@@ -6016,12 +5784,12 @@
         <v>sed -i 's/7/u/g' input.q</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="51">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A61" s="44">
         <v>8</v>
       </c>
       <c r="B61" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="C61">
         <v>9</v>
@@ -6031,12 +5799,12 @@
         <v>sed -i 's/8/J/g' input.q</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="51">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A62" s="44">
         <v>9</v>
       </c>
       <c r="B62" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="C62">
         <v>9</v>
@@ -6055,220 +5823,230 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.375" style="60" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.25" style="60" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.625" style="60" customWidth="1"/>
-    <col min="4" max="4" width="23.125" style="60" customWidth="1"/>
-    <col min="5" max="5" width="60.5" style="60" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="60"/>
+    <col min="1" max="1" width="7.375" style="50" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.25" style="50" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.625" style="50" customWidth="1"/>
+    <col min="4" max="4" width="23.125" style="50" customWidth="1"/>
+    <col min="5" max="5" width="60.5" style="50" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="50"/>
+    <col min="7" max="7" width="9" style="63"/>
+    <col min="8" max="16384" width="9" style="50"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1">
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-    </row>
-    <row r="2" spans="1:5" ht="15.75">
-      <c r="A2" s="59" t="s">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="G1" s="63">
+        <f>24*0.75</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="49" t="s">
+        <v>212</v>
+      </c>
+      <c r="B2" s="49" t="s">
+        <v>229</v>
+      </c>
+      <c r="D2" s="81" t="s">
+        <v>219</v>
+      </c>
+      <c r="E2" s="51" t="s">
+        <v>218</v>
+      </c>
+      <c r="G2" s="63">
+        <f>576/3</f>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="50" t="s">
+        <v>209</v>
+      </c>
+      <c r="B3" s="50">
+        <v>24</v>
+      </c>
+      <c r="D3" s="82"/>
+      <c r="E3" s="52" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="50" t="s">
+        <v>208</v>
+      </c>
+      <c r="B4" s="50" t="s">
+        <v>207</v>
+      </c>
+      <c r="D4" s="82"/>
+      <c r="E4" s="52" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="B5" s="50" t="s">
+        <v>211</v>
+      </c>
+      <c r="D5" s="82"/>
+      <c r="E5" s="52" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D6" s="82"/>
+      <c r="E6" s="52" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D7" s="82"/>
+      <c r="E7" s="52" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D8" s="82" t="s">
+        <v>222</v>
+      </c>
+      <c r="E8" s="52" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D9" s="82"/>
+      <c r="E9" s="52" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="55" t="s">
+        <v>223</v>
+      </c>
+      <c r="E10" s="52" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D11" s="83" t="s">
+        <v>220</v>
+      </c>
+      <c r="E11" s="84"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D13" s="81" t="s">
+        <v>219</v>
+      </c>
+      <c r="E13" s="51" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D14" s="82"/>
+      <c r="E14" s="52" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D15" s="56" t="s">
+        <v>226</v>
+      </c>
+      <c r="E15" s="52" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D16" s="55" t="s">
+        <v>223</v>
+      </c>
+      <c r="E16" s="52" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D17" s="83" t="s">
+        <v>225</v>
+      </c>
+      <c r="E17" s="84"/>
+    </row>
+    <row r="18" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D19" s="57"/>
+      <c r="E19" s="51"/>
+    </row>
+    <row r="20" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D20" s="79" t="s">
+        <v>230</v>
+      </c>
+      <c r="E20" s="80"/>
+    </row>
+    <row r="21" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D22" s="81" t="s">
+        <v>232</v>
+      </c>
+      <c r="E22" s="51" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="23" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D23" s="82"/>
+      <c r="E23" s="52" t="s">
         <v>234</v>
       </c>
-      <c r="B2" s="59" t="s">
-        <v>251</v>
-      </c>
-      <c r="D2" s="104" t="s">
-        <v>241</v>
-      </c>
-      <c r="E2" s="61" t="s">
+    </row>
+    <row r="24" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D24" s="56" t="s">
+        <v>239</v>
+      </c>
+      <c r="E24" s="52" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="60" t="s">
+    <row r="25" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D25" s="56" t="s">
+        <v>237</v>
+      </c>
+      <c r="E25" s="52"/>
+    </row>
+    <row r="26" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D26" s="85" t="s">
+        <v>223</v>
+      </c>
+      <c r="E26" s="52" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="27" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D27" s="86"/>
+      <c r="E27" s="53" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="28" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D28" s="58" t="s">
+        <v>238</v>
+      </c>
+      <c r="E28" s="53"/>
+    </row>
+    <row r="29" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D29" s="83" t="s">
         <v>231</v>
       </c>
-      <c r="B3" s="60">
-        <v>24</v>
-      </c>
-      <c r="D3" s="105"/>
-      <c r="E3" s="62" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="60" t="s">
-        <v>230</v>
-      </c>
-      <c r="B4" s="60" t="s">
-        <v>229</v>
-      </c>
-      <c r="D4" s="105"/>
-      <c r="E4" s="62" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="60" t="s">
-        <v>232</v>
-      </c>
-      <c r="B5" s="60" t="s">
-        <v>233</v>
-      </c>
-      <c r="D5" s="105"/>
-      <c r="E5" s="62" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="D6" s="105"/>
-      <c r="E6" s="62" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="D7" s="105"/>
-      <c r="E7" s="62" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="D8" s="105" t="s">
-        <v>244</v>
-      </c>
-      <c r="E8" s="62" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="D9" s="105"/>
-      <c r="E9" s="62" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1">
-      <c r="D10" s="65" t="s">
-        <v>245</v>
-      </c>
-      <c r="E10" s="62" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" thickBot="1">
-      <c r="D11" s="106" t="s">
-        <v>242</v>
-      </c>
-      <c r="E11" s="107"/>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" thickBot="1"/>
-    <row r="13" spans="1:5">
-      <c r="D13" s="104" t="s">
-        <v>241</v>
-      </c>
-      <c r="E13" s="61" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="D14" s="105"/>
-      <c r="E14" s="62" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="D15" s="66" t="s">
-        <v>248</v>
-      </c>
-      <c r="E15" s="62" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="D16" s="65" t="s">
-        <v>245</v>
-      </c>
-      <c r="E16" s="62" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="17" spans="4:5" ht="15.75" thickBot="1">
-      <c r="D17" s="106" t="s">
-        <v>247</v>
-      </c>
-      <c r="E17" s="107"/>
-    </row>
-    <row r="18" spans="4:5" ht="15.75" thickBot="1"/>
-    <row r="19" spans="4:5">
-      <c r="D19" s="67"/>
-      <c r="E19" s="61"/>
-    </row>
-    <row r="20" spans="4:5" ht="15.75" thickBot="1">
-      <c r="D20" s="102" t="s">
-        <v>252</v>
-      </c>
-      <c r="E20" s="103"/>
-    </row>
-    <row r="21" spans="4:5" ht="15.75" thickBot="1"/>
-    <row r="22" spans="4:5">
-      <c r="D22" s="104" t="s">
-        <v>254</v>
-      </c>
-      <c r="E22" s="61" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="23" spans="4:5">
-      <c r="D23" s="105"/>
-      <c r="E23" s="62" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="24" spans="4:5">
-      <c r="D24" s="66" t="s">
-        <v>261</v>
-      </c>
-      <c r="E24" s="62" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="25" spans="4:5">
-      <c r="D25" s="66" t="s">
-        <v>259</v>
-      </c>
-      <c r="E25" s="62"/>
-    </row>
-    <row r="26" spans="4:5">
-      <c r="D26" s="108" t="s">
-        <v>245</v>
-      </c>
-      <c r="E26" s="62" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="27" spans="4:5">
-      <c r="D27" s="109"/>
-      <c r="E27" s="63" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="28" spans="4:5">
-      <c r="D28" s="68" t="s">
-        <v>260</v>
-      </c>
-      <c r="E28" s="63"/>
-    </row>
-    <row r="29" spans="4:5" ht="15.75" thickBot="1">
-      <c r="D29" s="106" t="s">
-        <v>253</v>
-      </c>
-      <c r="E29" s="107"/>
+      <c r="E29" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -6288,105 +6066,287 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15.875" style="51" customWidth="1"/>
-    <col min="2" max="2" width="18.625" style="51" customWidth="1"/>
-    <col min="3" max="3" width="15.375" style="51" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="51"/>
+    <col min="2" max="2" width="6" style="66" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75">
-      <c r="A1" s="110" t="s">
+    <row r="1" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="64">
+        <f>18/0.35</f>
+        <v>51.428571428571431</v>
+      </c>
+      <c r="B1" s="65" t="s">
+        <v>281</v>
+      </c>
+      <c r="C1" s="65" t="s">
+        <v>274</v>
+      </c>
+      <c r="D1" s="65" t="s">
+        <v>275</v>
+      </c>
+      <c r="E1" t="s">
+        <v>283</v>
+      </c>
+      <c r="F1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="66">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D2" t="s">
+        <v>276</v>
+      </c>
+      <c r="E2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B3" s="66">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D3" t="s">
+        <v>278</v>
+      </c>
+      <c r="E3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B4" s="66">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>272</v>
+      </c>
+      <c r="D4" t="s">
+        <v>279</v>
+      </c>
+      <c r="E4" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B5" s="66">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
         <v>273</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="51" t="s">
-        <v>264</v>
-      </c>
-      <c r="B2" s="51">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="51" t="s">
-        <v>265</v>
-      </c>
-      <c r="B3" s="51">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="51" t="s">
-        <v>266</v>
-      </c>
-      <c r="B4" s="51" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="51" t="s">
-        <v>264</v>
-      </c>
-      <c r="B5" s="51">
-        <v>4400</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="51" t="s">
-        <v>268</v>
-      </c>
-      <c r="B6" s="51">
-        <v>-1100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="69" t="s">
-        <v>269</v>
-      </c>
-      <c r="B7" s="69">
-        <v>2100</v>
-      </c>
-      <c r="C7" s="51" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="69" t="s">
-        <v>271</v>
-      </c>
-      <c r="B8" s="69">
-        <v>1600</v>
-      </c>
-      <c r="C8" s="51" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="51" t="s">
-        <v>264</v>
-      </c>
-      <c r="B9" s="51">
-        <v>3300</v>
+      <c r="D5" t="s">
+        <v>280</v>
+      </c>
+      <c r="E5" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E6" t="s">
+        <v>288</v>
+      </c>
+      <c r="F6" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F7" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E8" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E9" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E10" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E11" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E12" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E13" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E14" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E15" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E16" t="s">
+        <v>298</v>
+      </c>
+      <c r="F16" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="17" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="E17" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="18" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="E18" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="19" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="E19" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="20" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="E20" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="21" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="E21" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="22" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="E22" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="23" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="E23" t="s">
+        <v>305</v>
+      </c>
+      <c r="F23" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="24" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="E24" t="s">
+        <v>306</v>
+      </c>
+      <c r="F24" t="s">
+        <v>324</v>
+      </c>
+      <c r="G24" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="25" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="E25" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="26" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="E26" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="27" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="E27" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="28" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="E28" t="s">
+        <v>310</v>
+      </c>
+      <c r="F28" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="29" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="E29" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="30" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="E30" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="31" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="E31" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="32" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="E32" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="33" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E33" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="34" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E34" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="35" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E35" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="36" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E36" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="37" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E37" t="s">
+        <v>319</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>